--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>807854.9919609368</v>
+        <v>807061.2580683379</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="V8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="H9" t="n">
-        <v>8.816525072005941</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="I9" t="n">
         <v>10.00967878293136</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1288,17 +1288,17 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="E10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>281.6510064131503</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>272.6323104576783</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>294.3744480275838</v>
+        <v>294.3744480275839</v>
       </c>
       <c r="F11" t="n">
         <v>313.546264115561</v>
       </c>
       <c r="G11" t="n">
-        <v>314.9514440975198</v>
+        <v>314.9514440975199</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>227.6213666270508</v>
       </c>
       <c r="I11" t="n">
-        <v>54.26650277500694</v>
+        <v>54.26650277500699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>76.85946757494993</v>
+        <v>76.85946757494999</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>123.3402372889862</v>
       </c>
       <c r="U11" t="n">
-        <v>67.15072525979468</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>237.1460666956477</v>
       </c>
       <c r="W11" t="n">
-        <v>262.4461661736046</v>
+        <v>239.7755821856404</v>
       </c>
       <c r="X11" t="n">
-        <v>281.7464244063512</v>
+        <v>281.7464244063513</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>293.14302220255</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.20962194032121</v>
       </c>
       <c r="I12" t="n">
-        <v>57.97024857545243</v>
+        <v>57.97024857545244</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.64342039372126</v>
+        <v>41.64342039372127</v>
       </c>
       <c r="S12" t="n">
         <v>146.0232136730974</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.25640033016565</v>
+        <v>85.25640033016569</v>
       </c>
       <c r="C13" t="n">
-        <v>71.45639517556613</v>
+        <v>71.45639517556617</v>
       </c>
       <c r="D13" t="n">
-        <v>1.415376407324665</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>54.02550942892397</v>
+        <v>30.56663634740704</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>54.49243375711032</v>
       </c>
       <c r="G13" t="n">
-        <v>70.53025441965687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>59.20940725107931</v>
+        <v>59.20940725107936</v>
       </c>
       <c r="I13" t="n">
-        <v>39.173909735846</v>
+        <v>39.17390973584605</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>40.9120701513867</v>
       </c>
       <c r="S13" t="n">
-        <v>110.9810420600518</v>
+        <v>110.9810420600519</v>
       </c>
       <c r="T13" t="n">
-        <v>133.3716165520477</v>
+        <v>133.3716165520478</v>
       </c>
       <c r="U13" t="n">
-        <v>187.8420016088497</v>
+        <v>187.8420016088498</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6645367297912</v>
+        <v>161.6645367297913</v>
       </c>
       <c r="W13" t="n">
         <v>186.8314228004045</v>
       </c>
       <c r="X13" t="n">
-        <v>132.4765247962076</v>
+        <v>132.4765247962077</v>
       </c>
       <c r="Y13" t="n">
         <v>123.3513925522753</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.6396894554685</v>
+        <v>293.6396894554686</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>281.6510064131504</v>
       </c>
       <c r="D14" t="n">
-        <v>27.45113820328058</v>
+        <v>272.6323104576783</v>
       </c>
       <c r="E14" t="n">
-        <v>294.3744480275838</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>313.5462641155609</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>314.9514440975198</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>227.6213666270507</v>
       </c>
       <c r="I14" t="n">
-        <v>54.26650277500687</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.85946757494986</v>
+        <v>76.85946757494999</v>
       </c>
       <c r="T14" t="n">
-        <v>123.3402372889861</v>
+        <v>123.3402372889862</v>
       </c>
       <c r="U14" t="n">
-        <v>155.8308212225384</v>
+        <v>106.5450687014107</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>237.1460666956477</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>262.4461661736046</v>
       </c>
       <c r="X14" t="n">
-        <v>281.7464244063511</v>
+        <v>281.7464244063513</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.1430222025499</v>
+        <v>293.14302220255</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.20962194032121</v>
       </c>
       <c r="I15" t="n">
-        <v>57.97024857545243</v>
+        <v>57.97024857545244</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.64342039372126</v>
+        <v>41.64342039372127</v>
       </c>
       <c r="S15" t="n">
         <v>146.0232136730974</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.25640033016558</v>
+        <v>85.25640033016569</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>71.45639517556617</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>54.0255094289239</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>31.95970143150511</v>
+        <v>14.5288156848606</v>
       </c>
       <c r="G16" t="n">
-        <v>70.53025441965681</v>
+        <v>70.53025441965691</v>
       </c>
       <c r="H16" t="n">
-        <v>59.20940725107924</v>
+        <v>59.20940725107936</v>
       </c>
       <c r="I16" t="n">
-        <v>39.17390973584593</v>
+        <v>39.17390973584605</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.91207015138658</v>
+        <v>40.9120701513867</v>
       </c>
       <c r="S16" t="n">
-        <v>110.9810420600518</v>
+        <v>110.9810420600519</v>
       </c>
       <c r="T16" t="n">
-        <v>133.3716165520476</v>
+        <v>133.3716165520478</v>
       </c>
       <c r="U16" t="n">
-        <v>187.8420016088497</v>
+        <v>187.8420016088498</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6645367297912</v>
+        <v>161.6645367297913</v>
       </c>
       <c r="W16" t="n">
-        <v>186.8314228004044</v>
+        <v>186.8314228004045</v>
       </c>
       <c r="X16" t="n">
-        <v>132.4765247962075</v>
+        <v>132.4765247962077</v>
       </c>
       <c r="Y16" t="n">
-        <v>123.3513925522752</v>
+        <v>123.3513925522753</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.9705866177276</v>
+        <v>19.85056127558213</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>66.33133098961837</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>98.82191492317062</v>
       </c>
       <c r="V17" t="n">
         <v>180.1371603962799</v>
@@ -1910,7 +1910,7 @@
         <v>224.7375181069834</v>
       </c>
       <c r="Y17" t="n">
-        <v>236.1341159031822</v>
+        <v>62.10089533253776</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.20962194032121</v>
       </c>
       <c r="I18" t="n">
-        <v>57.97024857545243</v>
+        <v>57.97024857545244</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.64342039372126</v>
+        <v>41.64342039372127</v>
       </c>
       <c r="S18" t="n">
         <v>146.0232136730974</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.24749403079787</v>
+        <v>28.24749403079784</v>
       </c>
       <c r="C19" t="n">
-        <v>14.44748887619835</v>
+        <v>14.44748887619832</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>13.52134812028909</v>
+        <v>13.52134812028906</v>
       </c>
       <c r="H19" t="n">
-        <v>2.200500951711533</v>
+        <v>2.200500951711506</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.31632571813663</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.97213576068407</v>
+        <v>53.97213576068404</v>
       </c>
       <c r="T19" t="n">
-        <v>76.36271025267995</v>
+        <v>101.5361576905794</v>
       </c>
       <c r="U19" t="n">
-        <v>137.6902170292446</v>
+        <v>130.833095309482</v>
       </c>
       <c r="V19" t="n">
-        <v>104.6556304304235</v>
+        <v>104.6556304304234</v>
       </c>
       <c r="W19" t="n">
         <v>129.8225165010367</v>
       </c>
       <c r="X19" t="n">
-        <v>75.46761849683983</v>
+        <v>75.4676184968398</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.34248625290752</v>
+        <v>66.34248625290749</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>236.6307831561008</v>
       </c>
       <c r="C20" t="n">
-        <v>224.6421001137825</v>
+        <v>50.60887954313956</v>
       </c>
       <c r="D20" t="n">
         <v>215.6234041583105</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.85056127558215</v>
+        <v>19.85056127558213</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>66.33133098961837</v>
       </c>
       <c r="U20" t="n">
-        <v>98.82191492317065</v>
+        <v>98.82191492317062</v>
       </c>
       <c r="V20" t="n">
         <v>180.1371603962799</v>
@@ -2144,7 +2144,7 @@
         <v>205.4372598742368</v>
       </c>
       <c r="X20" t="n">
-        <v>117.0356285259582</v>
+        <v>224.7375181069834</v>
       </c>
       <c r="Y20" t="n">
         <v>236.1341159031822</v>
@@ -2178,7 +2178,7 @@
         <v>96.20962194032121</v>
       </c>
       <c r="I21" t="n">
-        <v>57.97024857545243</v>
+        <v>57.97024857545244</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.64342039372126</v>
+        <v>41.64342039372127</v>
       </c>
       <c r="S21" t="n">
         <v>146.0232136730974</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.24749403079787</v>
+        <v>28.24749403079784</v>
       </c>
       <c r="C22" t="n">
-        <v>14.44748887619835</v>
+        <v>14.44748887619832</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>13.52134812028909</v>
+        <v>13.52134812028906</v>
       </c>
       <c r="H22" t="n">
-        <v>2.200500951711533</v>
+        <v>2.200500951711506</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>25.17344743789955</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.97213576068407</v>
+        <v>53.97213576068404</v>
       </c>
       <c r="T22" t="n">
-        <v>76.36271025267995</v>
+        <v>76.36271025267992</v>
       </c>
       <c r="U22" t="n">
-        <v>156.0065427473812</v>
+        <v>130.833095309482</v>
       </c>
       <c r="V22" t="n">
-        <v>104.6556304304235</v>
+        <v>104.6556304304234</v>
       </c>
       <c r="W22" t="n">
         <v>129.8225165010367</v>
       </c>
       <c r="X22" t="n">
-        <v>75.46761849683983</v>
+        <v>75.4676184968398</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.34248625290752</v>
+        <v>66.34248625290749</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.85056127558216</v>
+        <v>19.85056127558213</v>
       </c>
       <c r="T23" t="n">
-        <v>66.33133098961839</v>
+        <v>66.33133098961837</v>
       </c>
       <c r="U23" t="n">
-        <v>98.82191492317065</v>
+        <v>98.82191492317062</v>
       </c>
       <c r="V23" t="n">
         <v>180.1371603962799</v>
@@ -2415,7 +2415,7 @@
         <v>96.20962194032121</v>
       </c>
       <c r="I24" t="n">
-        <v>57.97024857545243</v>
+        <v>57.97024857545244</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.64342039372126</v>
+        <v>41.64342039372127</v>
       </c>
       <c r="S24" t="n">
         <v>146.0232136730974</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.24749403079787</v>
+        <v>28.24749403079784</v>
       </c>
       <c r="C25" t="n">
-        <v>14.44748887619835</v>
+        <v>14.44748887619832</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>13.52134812028909</v>
+        <v>13.52134812028906</v>
       </c>
       <c r="H25" t="n">
-        <v>2.200500951711533</v>
+        <v>2.200500951711506</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>79.14558319858335</v>
+        <v>53.97213576068404</v>
       </c>
       <c r="T25" t="n">
-        <v>76.36271025267995</v>
+        <v>76.36271025267992</v>
       </c>
       <c r="U25" t="n">
         <v>130.833095309482</v>
       </c>
       <c r="V25" t="n">
-        <v>104.6556304304235</v>
+        <v>129.8290778683229</v>
       </c>
       <c r="W25" t="n">
         <v>129.8225165010367</v>
       </c>
       <c r="X25" t="n">
-        <v>75.46761849683983</v>
+        <v>75.4676184968398</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.34248625290752</v>
+        <v>66.34248625290749</v>
       </c>
     </row>
     <row r="26">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.3870936082521</v>
+        <v>287.3870936082522</v>
       </c>
       <c r="C29" t="n">
         <v>275.3984105659339</v>
@@ -2798,19 +2798,19 @@
         <v>266.3797146104619</v>
       </c>
       <c r="E29" t="n">
-        <v>288.1218521803674</v>
+        <v>288.1218521803675</v>
       </c>
       <c r="F29" t="n">
         <v>307.2936682683446</v>
       </c>
       <c r="G29" t="n">
-        <v>308.6988482503034</v>
+        <v>308.6988482503035</v>
       </c>
       <c r="H29" t="n">
-        <v>221.3687707798343</v>
+        <v>221.3687707798344</v>
       </c>
       <c r="I29" t="n">
-        <v>48.01390692779052</v>
+        <v>48.01390692779056</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.60687172773351</v>
+        <v>70.60687172773355</v>
       </c>
       <c r="T29" t="n">
-        <v>117.0876414417697</v>
+        <v>117.0876414417698</v>
       </c>
       <c r="U29" t="n">
-        <v>149.578225375322</v>
+        <v>149.5782253753221</v>
       </c>
       <c r="V29" t="n">
         <v>230.8934708484313</v>
       </c>
       <c r="W29" t="n">
-        <v>256.1935703263888</v>
+        <v>256.1935703263882</v>
       </c>
       <c r="X29" t="n">
         <v>275.4938285591348</v>
       </c>
       <c r="Y29" t="n">
-        <v>286.8904263553335</v>
+        <v>286.8904263553336</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.00380448294922</v>
+        <v>79.00380448294926</v>
       </c>
       <c r="C31" t="n">
-        <v>65.2037993283497</v>
+        <v>65.20379932834975</v>
       </c>
       <c r="D31" t="n">
-        <v>48.82516372592809</v>
+        <v>48.82516372592814</v>
       </c>
       <c r="E31" t="n">
-        <v>47.77291358170754</v>
+        <v>47.77291358170758</v>
       </c>
       <c r="F31" t="n">
-        <v>48.23983790989385</v>
+        <v>48.23983790989389</v>
       </c>
       <c r="G31" t="n">
-        <v>64.27765857244046</v>
+        <v>64.2776585724405</v>
       </c>
       <c r="H31" t="n">
-        <v>52.95681140386289</v>
+        <v>52.95681140386293</v>
       </c>
       <c r="I31" t="n">
-        <v>32.92131388862958</v>
+        <v>32.92131388862962</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65947430417022</v>
+        <v>34.65947430417027</v>
       </c>
       <c r="S31" t="n">
-        <v>104.7284462128354</v>
+        <v>104.7284462128355</v>
       </c>
       <c r="T31" t="n">
-        <v>127.1190207048313</v>
+        <v>127.1190207048314</v>
       </c>
       <c r="U31" t="n">
-        <v>181.5894057616333</v>
+        <v>181.5894057616334</v>
       </c>
       <c r="V31" t="n">
-        <v>155.4119408825748</v>
+        <v>155.4119408825749</v>
       </c>
       <c r="W31" t="n">
         <v>180.5788269531881</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.7973895135322</v>
+        <v>284.797389513532</v>
       </c>
       <c r="C32" t="n">
-        <v>272.8087064712139</v>
+        <v>272.8087064712138</v>
       </c>
       <c r="D32" t="n">
-        <v>263.7900105157419</v>
+        <v>263.7900105157418</v>
       </c>
       <c r="E32" t="n">
-        <v>285.5321480856475</v>
+        <v>285.5321480856473</v>
       </c>
       <c r="F32" t="n">
-        <v>304.7039641736246</v>
+        <v>304.7039641736245</v>
       </c>
       <c r="G32" t="n">
-        <v>306.1091441555834</v>
+        <v>306.1091441555833</v>
       </c>
       <c r="H32" t="n">
-        <v>218.7790666851143</v>
+        <v>218.7790666851142</v>
       </c>
       <c r="I32" t="n">
-        <v>45.42420283307055</v>
+        <v>45.42420283307042</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.01716763301354</v>
+        <v>68.01716763301341</v>
       </c>
       <c r="T32" t="n">
-        <v>114.4979373470498</v>
+        <v>114.4979373470497</v>
       </c>
       <c r="U32" t="n">
-        <v>146.988521280602</v>
+        <v>146.9885212806019</v>
       </c>
       <c r="V32" t="n">
-        <v>228.3037667537113</v>
+        <v>228.3037667537112</v>
       </c>
       <c r="W32" t="n">
-        <v>253.6038662316682</v>
+        <v>253.6038662316681</v>
       </c>
       <c r="X32" t="n">
-        <v>272.9041244644148</v>
+        <v>272.9041244644147</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.3007222606136</v>
+        <v>284.3007222606134</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.41410038822926</v>
+        <v>76.41410038822913</v>
       </c>
       <c r="C34" t="n">
-        <v>62.61409523362974</v>
+        <v>62.61409523362961</v>
       </c>
       <c r="D34" t="n">
-        <v>46.23545963120813</v>
+        <v>46.235459631208</v>
       </c>
       <c r="E34" t="n">
-        <v>45.18320948698758</v>
+        <v>45.18320948698745</v>
       </c>
       <c r="F34" t="n">
-        <v>45.65013381517389</v>
+        <v>45.65013381517376</v>
       </c>
       <c r="G34" t="n">
-        <v>61.68795447772048</v>
+        <v>61.68795447772035</v>
       </c>
       <c r="H34" t="n">
-        <v>50.36710730914292</v>
+        <v>50.3671073091428</v>
       </c>
       <c r="I34" t="n">
-        <v>30.33160979390961</v>
+        <v>30.33160979390949</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.06977020945027</v>
+        <v>32.06977020945014</v>
       </c>
       <c r="S34" t="n">
-        <v>102.1387421181155</v>
+        <v>102.1387421181153</v>
       </c>
       <c r="T34" t="n">
-        <v>124.5293166101113</v>
+        <v>124.5293166101112</v>
       </c>
       <c r="U34" t="n">
-        <v>178.9997016669134</v>
+        <v>178.9997016669132</v>
       </c>
       <c r="V34" t="n">
-        <v>152.8222367878548</v>
+        <v>152.8222367878547</v>
       </c>
       <c r="W34" t="n">
-        <v>177.9891228584681</v>
+        <v>177.989122858468</v>
       </c>
       <c r="X34" t="n">
-        <v>123.6342248542712</v>
+        <v>123.6342248542711</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5090926103389</v>
+        <v>114.5090926103388</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.85056127558215</v>
+        <v>19.85056127558212</v>
       </c>
       <c r="T35" t="n">
-        <v>66.33133098961841</v>
+        <v>66.33133098961838</v>
       </c>
       <c r="U35" t="n">
-        <v>98.82191492317065</v>
+        <v>98.82191492317062</v>
       </c>
       <c r="V35" t="n">
         <v>180.1371603962799</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.24749403079787</v>
+        <v>28.24749403079784</v>
       </c>
       <c r="C37" t="n">
-        <v>14.44748887619835</v>
+        <v>14.44748887619832</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.52134812028909</v>
+        <v>13.52134812028906</v>
       </c>
       <c r="H37" t="n">
-        <v>2.200500951711534</v>
+        <v>2.200500951711506</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.97213576068407</v>
+        <v>53.97213576068404</v>
       </c>
       <c r="T37" t="n">
-        <v>101.5361576905792</v>
+        <v>76.36271025267992</v>
       </c>
       <c r="U37" t="n">
         <v>130.833095309482</v>
       </c>
       <c r="V37" t="n">
-        <v>104.6556304304235</v>
+        <v>104.6556304304234</v>
       </c>
       <c r="W37" t="n">
-        <v>129.8225165010367</v>
+        <v>154.9959639389362</v>
       </c>
       <c r="X37" t="n">
-        <v>75.46761849683983</v>
+        <v>75.4676184968398</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.34248625290752</v>
+        <v>66.34248625290749</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>236.6307831561008</v>
       </c>
       <c r="C38" t="n">
-        <v>224.6421001137825</v>
+        <v>224.6421001137826</v>
       </c>
       <c r="D38" t="n">
         <v>215.6234041583105</v>
       </c>
       <c r="E38" t="n">
-        <v>237.365541728216</v>
+        <v>237.3655417282161</v>
       </c>
       <c r="F38" t="n">
         <v>256.5373578161932</v>
       </c>
       <c r="G38" t="n">
-        <v>257.942537798152</v>
+        <v>257.9425377981521</v>
       </c>
       <c r="H38" t="n">
-        <v>170.6124603276829</v>
+        <v>170.612460327683</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.85056127558215</v>
+        <v>19.85056127558218</v>
       </c>
       <c r="T38" t="n">
-        <v>66.33133098961841</v>
+        <v>66.33133098961844</v>
       </c>
       <c r="U38" t="n">
-        <v>98.82191492317065</v>
+        <v>98.82191492317068</v>
       </c>
       <c r="V38" t="n">
         <v>180.1371603962799</v>
@@ -3566,7 +3566,7 @@
         <v>205.4372598742368</v>
       </c>
       <c r="X38" t="n">
-        <v>224.7375181069834</v>
+        <v>224.7375181069835</v>
       </c>
       <c r="Y38" t="n">
         <v>236.1341159031822</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.24749403079787</v>
+        <v>28.2474940307979</v>
       </c>
       <c r="C40" t="n">
-        <v>14.44748887619835</v>
+        <v>14.44748887619838</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.52134812028909</v>
+        <v>13.52134812028912</v>
       </c>
       <c r="H40" t="n">
-        <v>2.200500951711534</v>
+        <v>27.3739483896105</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>53.97213576068407</v>
+        <v>53.9721357606841</v>
       </c>
       <c r="T40" t="n">
-        <v>76.36271025267995</v>
+        <v>76.36271025267997</v>
       </c>
       <c r="U40" t="n">
-        <v>156.0065427473812</v>
+        <v>130.833095309482</v>
       </c>
       <c r="V40" t="n">
         <v>104.6556304304235</v>
@@ -3724,10 +3724,10 @@
         <v>129.8225165010367</v>
       </c>
       <c r="X40" t="n">
-        <v>75.46761849683983</v>
+        <v>75.46761849683986</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.34248625290752</v>
+        <v>66.34248625290755</v>
       </c>
     </row>
     <row r="41">
@@ -3901,7 +3901,7 @@
         <v>14.44748887619821</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>25.17344743790074</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>79.14558319858459</v>
+        <v>53.97213576068393</v>
       </c>
       <c r="T43" t="n">
         <v>76.3627102526798</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.6307831561007</v>
+        <v>236.6307831561006</v>
       </c>
       <c r="C44" t="n">
         <v>224.6421001137824</v>
@@ -3983,13 +3983,13 @@
         <v>215.6234041583104</v>
       </c>
       <c r="E44" t="n">
-        <v>237.365541728216</v>
+        <v>237.3655417282159</v>
       </c>
       <c r="F44" t="n">
         <v>256.5373578161931</v>
       </c>
       <c r="G44" t="n">
-        <v>257.942537798152</v>
+        <v>257.9425377981519</v>
       </c>
       <c r="H44" t="n">
         <v>170.6124603276828</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.85056127558207</v>
+        <v>19.85056127558201</v>
       </c>
       <c r="T44" t="n">
-        <v>66.33133098961832</v>
+        <v>66.33133098961827</v>
       </c>
       <c r="U44" t="n">
-        <v>98.82191492317057</v>
+        <v>98.82191492317142</v>
       </c>
       <c r="V44" t="n">
         <v>180.1371603962798</v>
@@ -4043,7 +4043,7 @@
         <v>224.7375181069833</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.1341159031821</v>
+        <v>236.134115903182</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.24749403079778</v>
+        <v>28.24749403079772</v>
       </c>
       <c r="C46" t="n">
-        <v>14.44748887619826</v>
+        <v>14.44748887619821</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>13.52134812028901</v>
+        <v>13.52134812028895</v>
       </c>
       <c r="H46" t="n">
-        <v>2.200500951711449</v>
+        <v>2.200500951711392</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>79.14558319858413</v>
+        <v>53.97213576068393</v>
       </c>
       <c r="T46" t="n">
-        <v>76.36271025267986</v>
+        <v>76.3627102526798</v>
       </c>
       <c r="U46" t="n">
-        <v>130.8330953094819</v>
+        <v>130.8330953094818</v>
       </c>
       <c r="V46" t="n">
-        <v>104.6556304304234</v>
+        <v>129.829077868324</v>
       </c>
       <c r="W46" t="n">
         <v>129.8225165010366</v>
       </c>
       <c r="X46" t="n">
-        <v>75.46761849683975</v>
+        <v>75.46761849683969</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.34248625290743</v>
+        <v>66.34248625290738</v>
       </c>
     </row>
   </sheetData>
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>31.13313425091136</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31.13313425091136</v>
+      </c>
+      <c r="D8" t="n">
+        <v>31.13313425091136</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.13313425091136</v>
+      </c>
+      <c r="F8" t="n">
         <v>21.02234760148574</v>
       </c>
-      <c r="C8" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="D8" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="E8" t="n">
-        <v>21.02234760148574</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>10.91156095206012</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.8007743026345088</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="I8" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8007743026345088</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8007743026345088</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="N8" t="n">
-        <v>10.3099691464193</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O8" t="n">
-        <v>20.21955114152135</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P8" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
@@ -4829,25 +4829,25 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S8" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T8" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U8" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="V8" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="W8" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="X8" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.02234760148574</v>
+        <v>31.13313425091136</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="C9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="D9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="E9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="F9" t="n">
-        <v>19.81714183287421</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="G9" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="H9" t="n">
         <v>10.91156095206012</v>
@@ -4881,52 +4881,52 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J9" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K9" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="L9" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="M9" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="N9" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O9" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P9" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="X9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8007743026345088</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8007743026345088</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8007743026345088</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="J10" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M10" t="n">
-        <v>10.71035629773655</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="N10" t="n">
-        <v>20.6199382928386</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O10" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="R10" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S10" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T10" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U10" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V10" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W10" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="X10" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.91156095206012</v>
+        <v>40.03871513172544</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1597.535511120086</v>
+        <v>1267.57394521728</v>
       </c>
       <c r="C11" t="n">
-        <v>1313.039545046197</v>
+        <v>1267.57394521728</v>
       </c>
       <c r="D11" t="n">
-        <v>1037.653372866724</v>
+        <v>1267.57394521728</v>
       </c>
       <c r="E11" t="n">
-        <v>740.3054455661338</v>
+        <v>970.2260179166904</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5920474696075</v>
+        <v>653.512619820164</v>
       </c>
       <c r="G11" t="n">
-        <v>105.4592756539309</v>
+        <v>335.3798480044873</v>
       </c>
       <c r="H11" t="n">
-        <v>105.4592756539309</v>
+        <v>105.459275653931</v>
       </c>
       <c r="I11" t="n">
         <v>50.64462638624713</v>
@@ -5042,10 +5042,10 @@
         <v>167.0157643569898</v>
       </c>
       <c r="K11" t="n">
-        <v>473.6591519466727</v>
+        <v>473.6591519466726</v>
       </c>
       <c r="L11" t="n">
-        <v>904.0473964139628</v>
+        <v>904.0473964139626</v>
       </c>
       <c r="M11" t="n">
         <v>1389.086903681356</v>
@@ -5054,7 +5054,7 @@
         <v>1860.70402887529</v>
       </c>
       <c r="O11" t="n">
-        <v>2078.004585497505</v>
+        <v>2253.795717387044</v>
       </c>
       <c r="P11" t="n">
         <v>2381.341787283598</v>
@@ -5066,25 +5066,25 @@
         <v>2532.231319312356</v>
       </c>
       <c r="S11" t="n">
-        <v>2454.595493479074</v>
+        <v>2454.595493479073</v>
       </c>
       <c r="T11" t="n">
-        <v>2454.595493479074</v>
+        <v>2330.00939520737</v>
       </c>
       <c r="U11" t="n">
-        <v>2386.76647806514</v>
+        <v>2330.00939520737</v>
       </c>
       <c r="V11" t="n">
-        <v>2147.224996554385</v>
+        <v>2090.467913696615</v>
       </c>
       <c r="W11" t="n">
-        <v>1882.127859005289</v>
+        <v>1848.270355933342</v>
       </c>
       <c r="X11" t="n">
-        <v>1597.535511120086</v>
+        <v>1563.678008048139</v>
       </c>
       <c r="Y11" t="n">
-        <v>1597.535511120086</v>
+        <v>1267.57394521728</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>917.08908106565</v>
+        <v>917.0890810656496</v>
       </c>
       <c r="C12" t="n">
-        <v>755.3854083066049</v>
+        <v>755.3854083066044</v>
       </c>
       <c r="D12" t="n">
-        <v>616.5467712968168</v>
+        <v>616.5467712968164</v>
       </c>
       <c r="E12" t="n">
-        <v>469.518761353688</v>
+        <v>469.5187613536875</v>
       </c>
       <c r="F12" t="n">
-        <v>334.8249633035624</v>
+        <v>334.8249633035619</v>
       </c>
       <c r="G12" t="n">
         <v>206.3818693314734</v>
@@ -5118,46 +5118,46 @@
         <v>50.64462638624713</v>
       </c>
       <c r="J12" t="n">
-        <v>137.3267857431458</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="K12" t="n">
-        <v>411.9870216111461</v>
+        <v>325.3048622542474</v>
       </c>
       <c r="L12" t="n">
-        <v>838.5450802737575</v>
+        <v>751.8629209168587</v>
       </c>
       <c r="M12" t="n">
-        <v>1394.454730187609</v>
+        <v>1307.77257083071</v>
       </c>
       <c r="N12" t="n">
-        <v>1524.487475787502</v>
+        <v>1891.79039802426</v>
       </c>
       <c r="O12" t="n">
-        <v>1983.241458958835</v>
+        <v>2350.544381195592</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.752856732386</v>
+        <v>2532.231319312356</v>
       </c>
       <c r="Q12" t="n">
         <v>2532.231319312356</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.167258308598</v>
+        <v>2490.167258308597</v>
       </c>
       <c r="S12" t="n">
         <v>2342.669062679206</v>
       </c>
       <c r="T12" t="n">
-        <v>2155.134345328753</v>
+        <v>2155.134345328752</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.658329637894</v>
+        <v>1936.658329637893</v>
       </c>
       <c r="V12" t="n">
         <v>1708.262707086227</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.946838319538</v>
+        <v>1466.946838319537</v>
       </c>
       <c r="X12" t="n">
         <v>1269.029850197332</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.4434672129108</v>
+        <v>308.1181438276703</v>
       </c>
       <c r="C13" t="n">
-        <v>277.2652902678945</v>
+        <v>235.9399668826539</v>
       </c>
       <c r="D13" t="n">
-        <v>275.8356171291827</v>
+        <v>235.9399668826539</v>
       </c>
       <c r="E13" t="n">
-        <v>221.2643954838049</v>
+        <v>205.0645766327478</v>
       </c>
       <c r="F13" t="n">
-        <v>221.2643954838049</v>
+        <v>150.0217142518283</v>
       </c>
       <c r="G13" t="n">
         <v>150.0217142518283</v>
@@ -5197,19 +5197,19 @@
         <v>50.64462638624713</v>
       </c>
       <c r="J13" t="n">
-        <v>103.8613933106498</v>
+        <v>103.8613933106497</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2105359793086</v>
+        <v>260.2105359793085</v>
       </c>
       <c r="L13" t="n">
-        <v>491.1821186069843</v>
+        <v>491.1821186069842</v>
       </c>
       <c r="M13" t="n">
-        <v>741.4354213144709</v>
+        <v>741.4354213144707</v>
       </c>
       <c r="N13" t="n">
-        <v>991.2434648469796</v>
+        <v>991.2434648469794</v>
       </c>
       <c r="O13" t="n">
         <v>1218.353272115541</v>
@@ -5221,28 +5221,28 @@
         <v>1482.549464616742</v>
       </c>
       <c r="R13" t="n">
-        <v>1482.549464616742</v>
+        <v>1441.224141231503</v>
       </c>
       <c r="S13" t="n">
-        <v>1370.447401929821</v>
+        <v>1329.122078544582</v>
       </c>
       <c r="T13" t="n">
-        <v>1235.728597331793</v>
+        <v>1194.403273946554</v>
       </c>
       <c r="U13" t="n">
-        <v>1045.989201767299</v>
+        <v>1004.663878382059</v>
       </c>
       <c r="V13" t="n">
-        <v>882.691689919025</v>
+        <v>841.3663665337847</v>
       </c>
       <c r="W13" t="n">
-        <v>693.9730810297275</v>
+        <v>652.6477576444871</v>
       </c>
       <c r="X13" t="n">
-        <v>560.1584095184068</v>
+        <v>518.8330861331663</v>
       </c>
       <c r="Y13" t="n">
-        <v>435.5610433039873</v>
+        <v>394.2357199187467</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1295.302367644836</v>
+        <v>840.4473369901659</v>
       </c>
       <c r="C14" t="n">
-        <v>1295.302367644836</v>
+        <v>555.9513709162766</v>
       </c>
       <c r="D14" t="n">
-        <v>1267.57394521728</v>
+        <v>280.5651987368034</v>
       </c>
       <c r="E14" t="n">
-        <v>970.2260179166899</v>
+        <v>280.5651987368034</v>
       </c>
       <c r="F14" t="n">
-        <v>653.5126198201636</v>
+        <v>280.5651987368034</v>
       </c>
       <c r="G14" t="n">
-        <v>335.3798480044871</v>
+        <v>280.5651987368034</v>
       </c>
       <c r="H14" t="n">
-        <v>105.4592756539308</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="I14" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J14" t="n">
-        <v>142.1141644962088</v>
+        <v>167.0157643569898</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7575520858917</v>
+        <v>473.6591519466726</v>
       </c>
       <c r="L14" t="n">
-        <v>879.1457965531818</v>
+        <v>904.0473964139626</v>
       </c>
       <c r="M14" t="n">
-        <v>1364.185303820575</v>
+        <v>1389.086903681356</v>
       </c>
       <c r="N14" t="n">
-        <v>1835.802429014509</v>
+        <v>1860.70402887529</v>
       </c>
       <c r="O14" t="n">
         <v>2228.894117526263</v>
@@ -5306,22 +5306,22 @@
         <v>2454.595493479073</v>
       </c>
       <c r="T14" t="n">
-        <v>2330.00939520737</v>
+        <v>2330.009395207371</v>
       </c>
       <c r="U14" t="n">
-        <v>2172.604525285613</v>
+        <v>2222.388113690794</v>
       </c>
       <c r="V14" t="n">
-        <v>2172.604525285613</v>
+        <v>1982.846632180039</v>
       </c>
       <c r="W14" t="n">
-        <v>2172.604525285613</v>
+        <v>1717.749494630943</v>
       </c>
       <c r="X14" t="n">
-        <v>1888.01217740041</v>
+        <v>1433.15714674574</v>
       </c>
       <c r="Y14" t="n">
-        <v>1591.908114569551</v>
+        <v>1137.053083914882</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>917.0890810656493</v>
+        <v>917.0890810656496</v>
       </c>
       <c r="C15" t="n">
-        <v>755.3854083066041</v>
+        <v>755.3854083066043</v>
       </c>
       <c r="D15" t="n">
-        <v>616.5467712968161</v>
+        <v>616.5467712968164</v>
       </c>
       <c r="E15" t="n">
-        <v>469.5187613536874</v>
+        <v>469.5187613536875</v>
       </c>
       <c r="F15" t="n">
-        <v>334.8249633035617</v>
+        <v>334.8249633035618</v>
       </c>
       <c r="G15" t="n">
-        <v>206.381869331473</v>
+        <v>206.3818693314731</v>
       </c>
       <c r="H15" t="n">
         <v>109.2004330281183</v>
       </c>
       <c r="I15" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J15" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="K15" t="n">
-        <v>50.64462638624712</v>
+        <v>325.3048622542474</v>
       </c>
       <c r="L15" t="n">
-        <v>477.2026850488585</v>
+        <v>751.8629209168587</v>
       </c>
       <c r="M15" t="n">
-        <v>1033.11233496271</v>
+        <v>1295.981046367504</v>
       </c>
       <c r="N15" t="n">
-        <v>1617.13016215626</v>
+        <v>1879.998873561053</v>
       </c>
       <c r="O15" t="n">
-        <v>2075.884145327592</v>
+        <v>2338.752856732386</v>
       </c>
       <c r="P15" t="n">
-        <v>2431.395543101144</v>
+        <v>2338.752856732386</v>
       </c>
       <c r="Q15" t="n">
         <v>2532.231319312356</v>
@@ -5397,10 +5397,10 @@
         <v>1466.946838319537</v>
       </c>
       <c r="X15" t="n">
-        <v>1269.029850197331</v>
+        <v>1269.029850197332</v>
       </c>
       <c r="Y15" t="n">
-        <v>1076.50852384691</v>
+        <v>1076.508523846911</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>308.1181438276724</v>
+        <v>308.1181438276706</v>
       </c>
       <c r="C16" t="n">
-        <v>308.1181438276724</v>
+        <v>235.9399668826542</v>
       </c>
       <c r="D16" t="n">
-        <v>308.1181438276724</v>
+        <v>235.9399668826542</v>
       </c>
       <c r="E16" t="n">
-        <v>253.5469221822947</v>
+        <v>235.9399668826542</v>
       </c>
       <c r="F16" t="n">
-        <v>221.2643954838047</v>
+        <v>221.2643954838051</v>
       </c>
       <c r="G16" t="n">
-        <v>150.0217142518281</v>
+        <v>150.0217142518284</v>
       </c>
       <c r="H16" t="n">
-        <v>90.21423218003089</v>
+        <v>90.21423218003102</v>
       </c>
       <c r="I16" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J16" t="n">
-        <v>103.8613933106498</v>
+        <v>103.8613933106497</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2105359793088</v>
+        <v>260.2105359793087</v>
       </c>
       <c r="L16" t="n">
-        <v>491.1821186069845</v>
+        <v>491.1821186069843</v>
       </c>
       <c r="M16" t="n">
-        <v>741.4354213144711</v>
+        <v>741.4354213144709</v>
       </c>
       <c r="N16" t="n">
-        <v>991.2434648469799</v>
+        <v>991.2434648469794</v>
       </c>
       <c r="O16" t="n">
-        <v>1218.353272115542</v>
+        <v>1218.353272115541</v>
       </c>
       <c r="P16" t="n">
-        <v>1405.183846557002</v>
+        <v>1405.183846557001</v>
       </c>
       <c r="Q16" t="n">
-        <v>1482.549464616743</v>
+        <v>1482.549464616742</v>
       </c>
       <c r="R16" t="n">
-        <v>1441.224141231504</v>
+        <v>1441.224141231503</v>
       </c>
       <c r="S16" t="n">
-        <v>1329.122078544583</v>
+        <v>1329.122078544582</v>
       </c>
       <c r="T16" t="n">
-        <v>1194.403273946555</v>
+        <v>1194.403273946554</v>
       </c>
       <c r="U16" t="n">
-        <v>1004.663878382061</v>
+        <v>1004.663878382059</v>
       </c>
       <c r="V16" t="n">
-        <v>841.3663665337867</v>
+        <v>841.3663665337849</v>
       </c>
       <c r="W16" t="n">
-        <v>652.6477576444893</v>
+        <v>652.6477576444875</v>
       </c>
       <c r="X16" t="n">
-        <v>518.8330861331682</v>
+        <v>518.8330861331666</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.2357199187487</v>
+        <v>394.235719918747</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1427.132911176487</v>
+        <v>1427.132911176488</v>
       </c>
       <c r="C17" t="n">
-        <v>1200.221698940343</v>
+        <v>1200.221698940344</v>
       </c>
       <c r="D17" t="n">
-        <v>982.4202805986149</v>
+        <v>982.4202805986164</v>
       </c>
       <c r="E17" t="n">
-        <v>742.6571071357704</v>
+        <v>742.6571071357719</v>
       </c>
       <c r="F17" t="n">
-        <v>483.5284628769894</v>
+        <v>483.5284628769909</v>
       </c>
       <c r="G17" t="n">
-        <v>222.9804448990582</v>
+        <v>222.9804448990581</v>
       </c>
       <c r="H17" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="I17" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J17" t="n">
-        <v>167.0157643569898</v>
+        <v>142.1141644962094</v>
       </c>
       <c r="K17" t="n">
-        <v>473.6591519466727</v>
+        <v>448.7575520858922</v>
       </c>
       <c r="L17" t="n">
-        <v>904.0473964139628</v>
+        <v>879.1457965531822</v>
       </c>
       <c r="M17" t="n">
-        <v>1213.295771791817</v>
+        <v>1364.185303820575</v>
       </c>
       <c r="N17" t="n">
-        <v>1684.912896985751</v>
+        <v>1835.802429014509</v>
       </c>
       <c r="O17" t="n">
-        <v>2078.004585497505</v>
+        <v>2228.894117526263</v>
       </c>
       <c r="P17" t="n">
-        <v>2381.341787283598</v>
+        <v>2532.231319312356</v>
       </c>
       <c r="Q17" t="n">
         <v>2532.231319312356</v>
@@ -5540,25 +5540,25 @@
         <v>2532.231319312356</v>
       </c>
       <c r="S17" t="n">
-        <v>2521.149918688389</v>
+        <v>2512.180247316819</v>
       </c>
       <c r="T17" t="n">
-        <v>2521.149918688389</v>
+        <v>2445.178902882861</v>
       </c>
       <c r="U17" t="n">
-        <v>2521.149918688389</v>
+        <v>2345.35878679885</v>
       </c>
       <c r="V17" t="n">
-        <v>2339.193191015379</v>
+        <v>2163.40205912584</v>
       </c>
       <c r="W17" t="n">
-        <v>2131.680807304028</v>
+        <v>1955.88967541449</v>
       </c>
       <c r="X17" t="n">
-        <v>1904.673213256571</v>
+        <v>1728.882081367032</v>
       </c>
       <c r="Y17" t="n">
-        <v>1666.153904263457</v>
+        <v>1666.153904263459</v>
       </c>
     </row>
     <row r="18">
@@ -5571,7 +5571,7 @@
         <v>917.0890810656496</v>
       </c>
       <c r="C18" t="n">
-        <v>755.3854083066044</v>
+        <v>755.3854083066043</v>
       </c>
       <c r="D18" t="n">
         <v>616.5467712968164</v>
@@ -5580,37 +5580,37 @@
         <v>469.5187613536875</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8249633035619</v>
+        <v>334.8249633035618</v>
       </c>
       <c r="G18" t="n">
-        <v>206.381869331473</v>
+        <v>206.3818693314731</v>
       </c>
       <c r="H18" t="n">
         <v>109.2004330281183</v>
       </c>
       <c r="I18" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J18" t="n">
-        <v>137.3267857431458</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="K18" t="n">
-        <v>384.5599986801005</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="L18" t="n">
-        <v>384.5599986801005</v>
+        <v>477.2026850488585</v>
       </c>
       <c r="M18" t="n">
-        <v>940.4696485939523</v>
+        <v>1033.11233496271</v>
       </c>
       <c r="N18" t="n">
-        <v>1524.487475787502</v>
+        <v>1617.13016215626</v>
       </c>
       <c r="O18" t="n">
-        <v>1983.241458958834</v>
+        <v>2075.884145327592</v>
       </c>
       <c r="P18" t="n">
-        <v>2338.752856732386</v>
+        <v>2431.395543101143</v>
       </c>
       <c r="Q18" t="n">
         <v>2532.231319312356</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.11870512180164</v>
+        <v>81.11870512180157</v>
       </c>
       <c r="C19" t="n">
-        <v>66.52528201453057</v>
+        <v>66.52528201453053</v>
       </c>
       <c r="D19" t="n">
-        <v>66.52528201453057</v>
+        <v>66.52528201453053</v>
       </c>
       <c r="E19" t="n">
-        <v>66.52528201453057</v>
+        <v>66.52528201453053</v>
       </c>
       <c r="F19" t="n">
-        <v>66.52528201453057</v>
+        <v>66.52528201453053</v>
       </c>
       <c r="G19" t="n">
-        <v>52.86735462029917</v>
+        <v>52.86735462029915</v>
       </c>
       <c r="H19" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="I19" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J19" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="K19" t="n">
         <v>111.4949885342093</v>
@@ -5692,31 +5692,31 @@
         <v>778.9743965084185</v>
       </c>
       <c r="Q19" t="n">
-        <v>760.4730573991897</v>
+        <v>778.9743965084185</v>
       </c>
       <c r="R19" t="n">
-        <v>760.4730573991897</v>
+        <v>778.9743965084185</v>
       </c>
       <c r="S19" t="n">
-        <v>705.9557485500138</v>
+        <v>724.4570876592427</v>
       </c>
       <c r="T19" t="n">
-        <v>628.821697789731</v>
+        <v>621.8953122142129</v>
       </c>
       <c r="U19" t="n">
-        <v>489.7406704874637</v>
+        <v>489.7406704874634</v>
       </c>
       <c r="V19" t="n">
-        <v>384.0279124769349</v>
+        <v>384.0279124769347</v>
       </c>
       <c r="W19" t="n">
-        <v>252.8940574253827</v>
+        <v>252.8940574253825</v>
       </c>
       <c r="X19" t="n">
-        <v>176.6641397518071</v>
+        <v>176.6641397518069</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.6515273751328</v>
+        <v>109.6515273751327</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1427.132911176487</v>
+        <v>1251.341779286948</v>
       </c>
       <c r="C20" t="n">
         <v>1200.221698940343</v>
       </c>
       <c r="D20" t="n">
-        <v>982.420280598615</v>
+        <v>982.4202805986148</v>
       </c>
       <c r="E20" t="n">
-        <v>742.6571071357705</v>
+        <v>742.6571071357703</v>
       </c>
       <c r="F20" t="n">
-        <v>483.5284628769895</v>
+        <v>483.5284628769894</v>
       </c>
       <c r="G20" t="n">
-        <v>222.9804448990582</v>
+        <v>222.9804448990581</v>
       </c>
       <c r="H20" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="I20" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J20" t="n">
-        <v>167.0157643569898</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="K20" t="n">
-        <v>473.6591519466727</v>
+        <v>297.8680200571338</v>
       </c>
       <c r="L20" t="n">
-        <v>904.0473964139628</v>
+        <v>728.2562645244238</v>
       </c>
       <c r="M20" t="n">
-        <v>1389.086903681356</v>
+        <v>1213.295771791817</v>
       </c>
       <c r="N20" t="n">
-        <v>1860.70402887529</v>
+        <v>1684.912896985751</v>
       </c>
       <c r="O20" t="n">
         <v>2078.004585497505</v>
@@ -5780,22 +5780,22 @@
         <v>2512.180247316819</v>
       </c>
       <c r="T20" t="n">
-        <v>2512.180247316819</v>
+        <v>2445.178902882862</v>
       </c>
       <c r="U20" t="n">
-        <v>2412.360131232808</v>
+        <v>2345.35878679885</v>
       </c>
       <c r="V20" t="n">
-        <v>2230.403403559798</v>
+        <v>2163.40205912584</v>
       </c>
       <c r="W20" t="n">
-        <v>2022.891019848448</v>
+        <v>1955.88967541449</v>
       </c>
       <c r="X20" t="n">
-        <v>1904.673213256571</v>
+        <v>1728.882081367032</v>
       </c>
       <c r="Y20" t="n">
-        <v>1666.153904263457</v>
+        <v>1490.362772373919</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>917.0890810656493</v>
+        <v>917.0890810656496</v>
       </c>
       <c r="C21" t="n">
-        <v>755.3854083066041</v>
+        <v>755.3854083066043</v>
       </c>
       <c r="D21" t="n">
-        <v>616.5467712968161</v>
+        <v>616.5467712968164</v>
       </c>
       <c r="E21" t="n">
-        <v>469.5187613536874</v>
+        <v>469.5187613536875</v>
       </c>
       <c r="F21" t="n">
-        <v>334.8249633035617</v>
+        <v>334.8249633035618</v>
       </c>
       <c r="G21" t="n">
-        <v>206.381869331473</v>
+        <v>206.3818693314731</v>
       </c>
       <c r="H21" t="n">
         <v>109.2004330281183</v>
       </c>
       <c r="I21" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J21" t="n">
-        <v>137.3267857431458</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="K21" t="n">
-        <v>411.9870216111461</v>
+        <v>151.4804025974597</v>
       </c>
       <c r="L21" t="n">
-        <v>838.5450802737575</v>
+        <v>578.038461260071</v>
       </c>
       <c r="M21" t="n">
-        <v>940.4696485939523</v>
+        <v>1133.948111173923</v>
       </c>
       <c r="N21" t="n">
-        <v>1524.487475787502</v>
+        <v>1717.965938367472</v>
       </c>
       <c r="O21" t="n">
-        <v>1983.241458958834</v>
+        <v>2176.719921538805</v>
       </c>
       <c r="P21" t="n">
-        <v>2338.752856732386</v>
+        <v>2532.231319312356</v>
       </c>
       <c r="Q21" t="n">
         <v>2532.231319312356</v>
@@ -5871,10 +5871,10 @@
         <v>1466.946838319537</v>
       </c>
       <c r="X21" t="n">
-        <v>1269.029850197331</v>
+        <v>1269.029850197332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1076.50852384691</v>
+        <v>1076.508523846911</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.11870512180164</v>
+        <v>106.5464298065486</v>
       </c>
       <c r="C22" t="n">
-        <v>66.52528201453057</v>
+        <v>91.95300669927755</v>
       </c>
       <c r="D22" t="n">
-        <v>66.52528201453057</v>
+        <v>91.95300669927755</v>
       </c>
       <c r="E22" t="n">
-        <v>66.52528201453057</v>
+        <v>91.95300669927755</v>
       </c>
       <c r="F22" t="n">
-        <v>66.52528201453057</v>
+        <v>91.95300669927755</v>
       </c>
       <c r="G22" t="n">
-        <v>52.86735462029917</v>
+        <v>78.29507930504617</v>
       </c>
       <c r="H22" t="n">
-        <v>50.64462638624712</v>
+        <v>76.07235107099415</v>
       </c>
       <c r="I22" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="J22" t="n">
-        <v>50.64462638624712</v>
+        <v>50.64462638624713</v>
       </c>
       <c r="K22" t="n">
         <v>111.4949885342093</v>
@@ -5941,19 +5941,19 @@
         <v>647.3230368989599</v>
       </c>
       <c r="U22" t="n">
-        <v>489.7406704874637</v>
+        <v>515.1683951722105</v>
       </c>
       <c r="V22" t="n">
-        <v>384.0279124769349</v>
+        <v>409.4556371616818</v>
       </c>
       <c r="W22" t="n">
-        <v>252.8940574253827</v>
+        <v>278.3217821101296</v>
       </c>
       <c r="X22" t="n">
-        <v>176.6641397518071</v>
+        <v>202.091864436554</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.6515273751328</v>
+        <v>135.0792520598797</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1430.720485296681</v>
+        <v>1430.720485296682</v>
       </c>
       <c r="C23" t="n">
-        <v>1203.809273060537</v>
+        <v>1203.809273060538</v>
       </c>
       <c r="D23" t="n">
-        <v>986.0078547188095</v>
+        <v>986.0078547188098</v>
       </c>
       <c r="E23" t="n">
-        <v>746.244681255965</v>
+        <v>746.2446812559654</v>
       </c>
       <c r="F23" t="n">
-        <v>487.116036997184</v>
+        <v>487.1160369971844</v>
       </c>
       <c r="G23" t="n">
-        <v>226.5680190192529</v>
+        <v>226.5680190192528</v>
       </c>
       <c r="H23" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="I23" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="J23" t="n">
-        <v>170.6033384771844</v>
+        <v>170.6033384771845</v>
       </c>
       <c r="K23" t="n">
-        <v>477.2467260668672</v>
+        <v>477.2467260668673</v>
       </c>
       <c r="L23" t="n">
         <v>907.6349705341572</v>
@@ -6005,31 +6005,31 @@
         <v>2257.383291507238</v>
       </c>
       <c r="P23" t="n">
-        <v>2560.720493293331</v>
+        <v>2560.720493293332</v>
       </c>
       <c r="Q23" t="n">
-        <v>2711.61002532209</v>
+        <v>2711.610025322091</v>
       </c>
       <c r="R23" t="n">
-        <v>2711.61002532209</v>
+        <v>2711.610025322091</v>
       </c>
       <c r="S23" t="n">
         <v>2691.558953326552</v>
       </c>
       <c r="T23" t="n">
-        <v>2624.557608892594</v>
+        <v>2624.557608892595</v>
       </c>
       <c r="U23" t="n">
         <v>2524.737492808584</v>
       </c>
       <c r="V23" t="n">
-        <v>2342.780765135573</v>
+        <v>2342.780765135574</v>
       </c>
       <c r="W23" t="n">
-        <v>2135.268381424223</v>
+        <v>2135.268381424224</v>
       </c>
       <c r="X23" t="n">
-        <v>1908.260787376765</v>
+        <v>1908.260787376766</v>
       </c>
       <c r="Y23" t="n">
         <v>1669.741478383652</v>
@@ -6057,34 +6057,34 @@
         <v>338.4125374237565</v>
       </c>
       <c r="G24" t="n">
-        <v>209.9694434516677</v>
+        <v>209.9694434516678</v>
       </c>
       <c r="H24" t="n">
-        <v>112.7880071483129</v>
+        <v>112.788007148313</v>
       </c>
       <c r="I24" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="J24" t="n">
-        <v>140.9143598633405</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="K24" t="n">
-        <v>415.5745957313408</v>
+        <v>328.8924363744421</v>
       </c>
       <c r="L24" t="n">
-        <v>842.1326543939522</v>
+        <v>755.4504950370534</v>
       </c>
       <c r="M24" t="n">
-        <v>1398.042304307804</v>
+        <v>1311.360144950905</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.075049907697</v>
+        <v>1895.377972144454</v>
       </c>
       <c r="O24" t="n">
-        <v>1986.829033079029</v>
+        <v>2354.131955315786</v>
       </c>
       <c r="P24" t="n">
-        <v>2342.340430852581</v>
+        <v>2535.818893432551</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.818893432551</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.70627924199633</v>
+        <v>84.70627924199626</v>
       </c>
       <c r="C25" t="n">
-        <v>70.11285613472526</v>
+        <v>70.11285613472522</v>
       </c>
       <c r="D25" t="n">
-        <v>70.11285613472526</v>
+        <v>70.11285613472522</v>
       </c>
       <c r="E25" t="n">
-        <v>70.11285613472526</v>
+        <v>70.11285613472522</v>
       </c>
       <c r="F25" t="n">
-        <v>70.11285613472526</v>
+        <v>70.11285613472522</v>
       </c>
       <c r="G25" t="n">
-        <v>56.45492874049386</v>
+        <v>56.45492874049384</v>
       </c>
       <c r="H25" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="I25" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="J25" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="K25" t="n">
         <v>115.082562654404</v>
@@ -6172,25 +6172,25 @@
         <v>782.5619706286132</v>
       </c>
       <c r="S25" t="n">
-        <v>702.6169370946906</v>
+        <v>728.0446617794373</v>
       </c>
       <c r="T25" t="n">
-        <v>625.4828863344078</v>
+        <v>650.9106110191545</v>
       </c>
       <c r="U25" t="n">
-        <v>493.3282446076583</v>
+        <v>518.7559692924051</v>
       </c>
       <c r="V25" t="n">
-        <v>387.6154865971296</v>
+        <v>387.6154865971295</v>
       </c>
       <c r="W25" t="n">
-        <v>256.4816315455774</v>
+        <v>256.4816315455772</v>
       </c>
       <c r="X25" t="n">
-        <v>180.2517138720018</v>
+        <v>180.2517138720016</v>
       </c>
       <c r="Y25" t="n">
-        <v>113.2391014953275</v>
+        <v>113.2391014953274</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1802.47144315387</v>
+        <v>1802.471443153868</v>
       </c>
       <c r="C26" t="n">
-        <v>1524.291230461007</v>
+        <v>1524.291230461005</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.22081166256</v>
+        <v>1255.220811662559</v>
       </c>
       <c r="E26" t="n">
-        <v>964.1886377429973</v>
+        <v>964.1886377429955</v>
       </c>
       <c r="F26" t="n">
-        <v>653.7909930274977</v>
+        <v>653.7909930274959</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9739745928478</v>
+        <v>341.9739745928459</v>
       </c>
       <c r="H26" t="n">
-        <v>118.3691556233177</v>
+        <v>118.3691556233176</v>
       </c>
       <c r="I26" t="n">
-        <v>69.87025973666053</v>
+        <v>69.87025973666049</v>
       </c>
       <c r="J26" t="n">
-        <v>287.9302481168442</v>
+        <v>194.9893038207563</v>
       </c>
       <c r="K26" t="n">
-        <v>696.2624861159679</v>
+        <v>603.3215418198801</v>
       </c>
       <c r="L26" t="n">
-        <v>1228.339580992699</v>
+        <v>1135.398636696611</v>
       </c>
       <c r="M26" t="n">
-        <v>1815.067938669533</v>
+        <v>1722.126994373445</v>
       </c>
       <c r="N26" t="n">
-        <v>2295.432969976822</v>
+        <v>2295.43296997682</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.213508898017</v>
+        <v>2790.213508898015</v>
       </c>
       <c r="P26" t="n">
-        <v>3195.23956109355</v>
+        <v>3195.239561093549</v>
       </c>
       <c r="Q26" t="n">
-        <v>3447.81794353175</v>
+        <v>3447.817943531748</v>
       </c>
       <c r="R26" t="n">
-        <v>3493.512986833026</v>
+        <v>3493.512986833025</v>
       </c>
       <c r="S26" t="n">
-        <v>3422.19291438077</v>
+        <v>3422.192914380768</v>
       </c>
       <c r="T26" t="n">
-        <v>3303.922569490094</v>
+        <v>3303.922569490092</v>
       </c>
       <c r="U26" t="n">
-        <v>3152.833452949365</v>
+        <v>3152.833452949363</v>
       </c>
       <c r="V26" t="n">
-        <v>2919.607724819636</v>
+        <v>2919.607724819634</v>
       </c>
       <c r="W26" t="n">
-        <v>2660.826340651567</v>
+        <v>2660.826340651565</v>
       </c>
       <c r="X26" t="n">
-        <v>2382.549746147391</v>
+        <v>2382.549746147389</v>
       </c>
       <c r="Y26" t="n">
-        <v>2092.761436697559</v>
+        <v>2092.761436697557</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>225.6075026818864</v>
       </c>
       <c r="H27" t="n">
-        <v>128.4260663785317</v>
+        <v>128.4260663785316</v>
       </c>
       <c r="I27" t="n">
-        <v>69.87025973666053</v>
+        <v>69.87025973666049</v>
       </c>
       <c r="J27" t="n">
-        <v>156.5524190935592</v>
+        <v>69.87025973666049</v>
       </c>
       <c r="K27" t="n">
-        <v>431.2126549615595</v>
+        <v>170.706035947873</v>
       </c>
       <c r="L27" t="n">
-        <v>857.7707136241709</v>
+        <v>597.2640946104843</v>
       </c>
       <c r="M27" t="n">
-        <v>959.6952819443658</v>
+        <v>1153.173744524336</v>
       </c>
       <c r="N27" t="n">
-        <v>1543.713109137915</v>
+        <v>1737.191571717886</v>
       </c>
       <c r="O27" t="n">
-        <v>2002.467092309247</v>
+        <v>2195.945554889218</v>
       </c>
       <c r="P27" t="n">
-        <v>2357.978490082799</v>
+        <v>2551.456952662769</v>
       </c>
       <c r="Q27" t="n">
         <v>2551.456952662769</v>
@@ -6361,37 +6361,37 @@
         <v>433.706116717279</v>
       </c>
       <c r="C28" t="n">
-        <v>367.8436931532894</v>
+        <v>367.8436931532893</v>
       </c>
       <c r="D28" t="n">
-        <v>318.5253459553822</v>
+        <v>318.5253459553821</v>
       </c>
       <c r="E28" t="n">
         <v>270.2698776910311</v>
       </c>
       <c r="F28" t="n">
-        <v>221.5427686911383</v>
+        <v>221.5427686911382</v>
       </c>
       <c r="G28" t="n">
-        <v>156.6158408401883</v>
+        <v>156.6158408401882</v>
       </c>
       <c r="H28" t="n">
         <v>103.1241121494177</v>
       </c>
       <c r="I28" t="n">
-        <v>69.87025973666053</v>
+        <v>69.87025973666049</v>
       </c>
       <c r="J28" t="n">
-        <v>129.2770965498073</v>
+        <v>129.2770965498074</v>
       </c>
       <c r="K28" t="n">
-        <v>291.8163091072104</v>
+        <v>291.8163091072107</v>
       </c>
       <c r="L28" t="n">
-        <v>528.9779616236303</v>
+        <v>528.9779616236306</v>
       </c>
       <c r="M28" t="n">
-        <v>785.4213342198614</v>
+        <v>785.4213342198613</v>
       </c>
       <c r="N28" t="n">
         <v>1041.419447641114</v>
@@ -6421,13 +6421,13 @@
         <v>941.6913258992865</v>
       </c>
       <c r="W28" t="n">
-        <v>759.2884703910158</v>
+        <v>759.2884703910157</v>
       </c>
       <c r="X28" t="n">
         <v>631.7895522607216</v>
       </c>
       <c r="Y28" t="n">
-        <v>513.5079394273288</v>
+        <v>513.5079394273287</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1802.471443153869</v>
+        <v>1802.471443153868</v>
       </c>
       <c r="C29" t="n">
         <v>1524.291230461006</v>
@@ -6446,58 +6446,58 @@
         <v>1255.22081166256</v>
       </c>
       <c r="E29" t="n">
-        <v>964.1886377429967</v>
+        <v>964.1886377429964</v>
       </c>
       <c r="F29" t="n">
-        <v>653.7909930274971</v>
+        <v>653.7909930274968</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9739745928472</v>
+        <v>341.9739745928468</v>
       </c>
       <c r="H29" t="n">
         <v>118.3691556233176</v>
       </c>
       <c r="I29" t="n">
-        <v>69.87025973666053</v>
+        <v>69.87025973666049</v>
       </c>
       <c r="J29" t="n">
-        <v>287.9302481168442</v>
+        <v>287.9302481168441</v>
       </c>
       <c r="K29" t="n">
-        <v>696.2624861159679</v>
+        <v>696.2624861159678</v>
       </c>
       <c r="L29" t="n">
-        <v>1135.398636696613</v>
+        <v>1228.339580992699</v>
       </c>
       <c r="M29" t="n">
-        <v>1722.126994373447</v>
+        <v>1815.067938669533</v>
       </c>
       <c r="N29" t="n">
-        <v>2295.432969976822</v>
+        <v>2295.43296997682</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.213508898017</v>
+        <v>2790.213508898015</v>
       </c>
       <c r="P29" t="n">
-        <v>3195.23956109355</v>
+        <v>3195.239561093549</v>
       </c>
       <c r="Q29" t="n">
-        <v>3447.81794353175</v>
+        <v>3447.817943531748</v>
       </c>
       <c r="R29" t="n">
-        <v>3493.512986833026</v>
+        <v>3493.512986833025</v>
       </c>
       <c r="S29" t="n">
-        <v>3422.19291438077</v>
+        <v>3422.192914380769</v>
       </c>
       <c r="T29" t="n">
-        <v>3303.922569490094</v>
+        <v>3303.922569490092</v>
       </c>
       <c r="U29" t="n">
-        <v>3152.833452949365</v>
+        <v>3152.833452949364</v>
       </c>
       <c r="V29" t="n">
-        <v>2919.607724819636</v>
+        <v>2919.607724819635</v>
       </c>
       <c r="W29" t="n">
         <v>2660.826340651566</v>
@@ -6534,22 +6534,22 @@
         <v>225.6075026818864</v>
       </c>
       <c r="H30" t="n">
-        <v>128.4260663785317</v>
+        <v>128.4260663785316</v>
       </c>
       <c r="I30" t="n">
-        <v>69.87025973666053</v>
+        <v>69.87025973666049</v>
       </c>
       <c r="J30" t="n">
-        <v>156.5524190935592</v>
+        <v>69.87025973666049</v>
       </c>
       <c r="K30" t="n">
-        <v>431.2126549615596</v>
+        <v>344.5304956046608</v>
       </c>
       <c r="L30" t="n">
-        <v>857.770713624171</v>
+        <v>771.0885542672722</v>
       </c>
       <c r="M30" t="n">
-        <v>959.6952819443657</v>
+        <v>1326.998204181124</v>
       </c>
       <c r="N30" t="n">
         <v>1543.713109137915</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>433.7061167172789</v>
+        <v>433.7061167172787</v>
       </c>
       <c r="C31" t="n">
-        <v>367.8436931532892</v>
+        <v>367.8436931532891</v>
       </c>
       <c r="D31" t="n">
-        <v>318.5253459553821</v>
+        <v>318.5253459553819</v>
       </c>
       <c r="E31" t="n">
-        <v>270.269877691031</v>
+        <v>270.2698776910308</v>
       </c>
       <c r="F31" t="n">
-        <v>221.5427686911382</v>
+        <v>221.542768691138</v>
       </c>
       <c r="G31" t="n">
-        <v>156.6158408401883</v>
+        <v>156.615840840188</v>
       </c>
       <c r="H31" t="n">
         <v>103.1241121494177</v>
       </c>
       <c r="I31" t="n">
-        <v>69.87025973666053</v>
+        <v>69.87025973666049</v>
       </c>
       <c r="J31" t="n">
-        <v>129.2770965498075</v>
+        <v>129.2770965498073</v>
       </c>
       <c r="K31" t="n">
-        <v>291.8163091072106</v>
+        <v>291.8163091072104</v>
       </c>
       <c r="L31" t="n">
-        <v>528.9779616236306</v>
+        <v>528.9779616236303</v>
       </c>
       <c r="M31" t="n">
-        <v>785.4213342198611</v>
+        <v>785.421334219861</v>
       </c>
       <c r="N31" t="n">
         <v>1041.419447641114</v>
@@ -6658,10 +6658,10 @@
         <v>941.6913258992863</v>
       </c>
       <c r="W31" t="n">
-        <v>759.2884703910156</v>
+        <v>759.2884703910155</v>
       </c>
       <c r="X31" t="n">
-        <v>631.7895522607215</v>
+        <v>631.7895522607213</v>
       </c>
       <c r="Y31" t="n">
         <v>513.5079394273286</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1783.359629797659</v>
+        <v>1783.359629797658</v>
       </c>
       <c r="C32" t="n">
-        <v>1507.795279826736</v>
+        <v>1507.795279826735</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.340723750229</v>
+        <v>1241.340723750228</v>
       </c>
       <c r="E32" t="n">
-        <v>952.9244125526052</v>
+        <v>952.9244125526043</v>
       </c>
       <c r="F32" t="n">
-        <v>645.1426305590448</v>
+        <v>645.1426305590442</v>
       </c>
       <c r="G32" t="n">
-        <v>335.941474846334</v>
+        <v>335.9414748463337</v>
       </c>
       <c r="H32" t="n">
-        <v>114.9525185987438</v>
+        <v>114.9525185987436</v>
       </c>
       <c r="I32" t="n">
-        <v>69.06948543402602</v>
+        <v>69.06948543402598</v>
       </c>
       <c r="J32" t="n">
-        <v>185.4406234047687</v>
+        <v>289.6932808679825</v>
       </c>
       <c r="K32" t="n">
-        <v>545.3361773117474</v>
+        <v>700.5893259208791</v>
       </c>
       <c r="L32" t="n">
-        <v>1079.977079242251</v>
+        <v>1184.229736705462</v>
       </c>
       <c r="M32" t="n">
-        <v>1669.269243972858</v>
+        <v>1669.269243972855</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.139026630006</v>
+        <v>2245.139026630003</v>
       </c>
       <c r="O32" t="n">
-        <v>2742.483372604973</v>
+        <v>2742.483372604971</v>
       </c>
       <c r="P32" t="n">
-        <v>3150.07323185428</v>
+        <v>3150.073231854278</v>
       </c>
       <c r="Q32" t="n">
-        <v>3405.215421346252</v>
+        <v>3405.21542134625</v>
       </c>
       <c r="R32" t="n">
-        <v>3453.474271701301</v>
+        <v>3453.474271701299</v>
       </c>
       <c r="S32" t="n">
-        <v>3384.770061970984</v>
+        <v>3384.770061970983</v>
       </c>
       <c r="T32" t="n">
-        <v>3269.115579802248</v>
+        <v>3269.115579802246</v>
       </c>
       <c r="U32" t="n">
-        <v>3120.642325983457</v>
+        <v>3120.642325983456</v>
       </c>
       <c r="V32" t="n">
-        <v>2890.032460575668</v>
+        <v>2890.032460575666</v>
       </c>
       <c r="W32" t="n">
-        <v>2633.866939129539</v>
+        <v>2633.866939129537</v>
       </c>
       <c r="X32" t="n">
-        <v>2358.206207347302</v>
+        <v>2358.2062073473</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.033760619409</v>
+        <v>2071.033760619408</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>224.8067283792519</v>
       </c>
       <c r="H33" t="n">
-        <v>127.6252920758972</v>
+        <v>127.6252920758971</v>
       </c>
       <c r="I33" t="n">
-        <v>69.06948543402602</v>
+        <v>69.06948543402598</v>
       </c>
       <c r="J33" t="n">
         <v>155.7516447909247</v>
@@ -6786,7 +6786,7 @@
         <v>856.9699393215362</v>
       </c>
       <c r="M33" t="n">
-        <v>1412.879589235388</v>
+        <v>958.8945076417311</v>
       </c>
       <c r="N33" t="n">
         <v>1542.91233483528</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.5943033610688</v>
+        <v>414.5943033610679</v>
       </c>
       <c r="C34" t="n">
-        <v>351.3477425190185</v>
+        <v>351.3477425190177</v>
       </c>
       <c r="D34" t="n">
-        <v>304.6452580430507</v>
+        <v>304.6452580430501</v>
       </c>
       <c r="E34" t="n">
-        <v>259.005652500639</v>
+        <v>259.0056525006385</v>
       </c>
       <c r="F34" t="n">
-        <v>212.8944062226856</v>
+        <v>212.8944062226852</v>
       </c>
       <c r="G34" t="n">
-        <v>150.583341093675</v>
+        <v>150.5833410936747</v>
       </c>
       <c r="H34" t="n">
-        <v>99.70747512484381</v>
+        <v>99.70747512484364</v>
       </c>
       <c r="I34" t="n">
-        <v>69.06948543402602</v>
+        <v>69.06948543402598</v>
       </c>
       <c r="J34" t="n">
-        <v>69.06948543402602</v>
+        <v>131.0401293009458</v>
       </c>
       <c r="K34" t="n">
-        <v>233.7788889309096</v>
+        <v>296.1431489121218</v>
       </c>
       <c r="L34" t="n">
-        <v>473.5043485011023</v>
+        <v>535.8686084823146</v>
       </c>
       <c r="M34" t="n">
-        <v>732.5115281511059</v>
+        <v>794.8757881323183</v>
       </c>
       <c r="N34" t="n">
-        <v>991.0734486261317</v>
+        <v>991.0734486261285</v>
       </c>
       <c r="O34" t="n">
-        <v>1226.93713283721</v>
+        <v>1226.937132837207</v>
       </c>
       <c r="P34" t="n">
-        <v>1422.521584221187</v>
+        <v>1422.521584221184</v>
       </c>
       <c r="Q34" t="n">
-        <v>1508.641079223446</v>
+        <v>1508.641079223443</v>
       </c>
       <c r="R34" t="n">
-        <v>1476.247371941173</v>
+        <v>1476.24737194117</v>
       </c>
       <c r="S34" t="n">
-        <v>1373.076925357218</v>
+        <v>1373.076925357215</v>
       </c>
       <c r="T34" t="n">
-        <v>1247.289736862155</v>
+        <v>1247.289736862154</v>
       </c>
       <c r="U34" t="n">
-        <v>1066.481957400627</v>
+        <v>1066.481957400625</v>
       </c>
       <c r="V34" t="n">
-        <v>912.1160616553188</v>
+        <v>912.1160616553174</v>
       </c>
       <c r="W34" t="n">
-        <v>732.3290688689874</v>
+        <v>732.329068868986</v>
       </c>
       <c r="X34" t="n">
-        <v>607.4460134606326</v>
+        <v>607.4460134606314</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.7802633491792</v>
+        <v>491.7802633491781</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>1203.809273060538</v>
       </c>
       <c r="D35" t="n">
-        <v>986.00785471881</v>
+        <v>986.0078547188101</v>
       </c>
       <c r="E35" t="n">
-        <v>746.2446812559655</v>
+        <v>746.2446812559656</v>
       </c>
       <c r="F35" t="n">
-        <v>487.1160369971844</v>
+        <v>487.1160369971846</v>
       </c>
       <c r="G35" t="n">
-        <v>226.5680190192529</v>
+        <v>226.5680190192528</v>
       </c>
       <c r="H35" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="I35" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="J35" t="n">
-        <v>170.6033384771845</v>
+        <v>170.603338477184</v>
       </c>
       <c r="K35" t="n">
-        <v>477.2467260668673</v>
+        <v>477.2467260668668</v>
       </c>
       <c r="L35" t="n">
-        <v>907.6349705341572</v>
+        <v>907.6349705341568</v>
       </c>
       <c r="M35" t="n">
         <v>1392.67447780155</v>
@@ -6953,7 +6953,7 @@
         <v>2257.383291507238</v>
       </c>
       <c r="P35" t="n">
-        <v>2560.720493293331</v>
+        <v>2560.720493293332</v>
       </c>
       <c r="Q35" t="n">
         <v>2711.61002532209</v>
@@ -7008,31 +7008,31 @@
         <v>209.9694434516677</v>
       </c>
       <c r="H36" t="n">
-        <v>112.7880071483129</v>
+        <v>112.788007148313</v>
       </c>
       <c r="I36" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="J36" t="n">
-        <v>54.2322005064418</v>
+        <v>140.9143598633405</v>
       </c>
       <c r="K36" t="n">
-        <v>328.8924363744421</v>
+        <v>317.1009119112356</v>
       </c>
       <c r="L36" t="n">
-        <v>755.4504950370534</v>
+        <v>743.658970573847</v>
       </c>
       <c r="M36" t="n">
-        <v>1311.360144950905</v>
+        <v>1299.568620487699</v>
       </c>
       <c r="N36" t="n">
-        <v>1895.377972144454</v>
+        <v>1883.586447681248</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.131955315786</v>
+        <v>2342.340430852581</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.818893432551</v>
+        <v>2342.340430852581</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.818893432551</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.70627924199633</v>
+        <v>84.70627924199624</v>
       </c>
       <c r="C37" t="n">
-        <v>70.11285613472526</v>
+        <v>70.11285613472521</v>
       </c>
       <c r="D37" t="n">
-        <v>70.11285613472526</v>
+        <v>70.11285613472521</v>
       </c>
       <c r="E37" t="n">
-        <v>70.11285613472526</v>
+        <v>70.11285613472521</v>
       </c>
       <c r="F37" t="n">
-        <v>70.11285613472526</v>
+        <v>70.11285613472521</v>
       </c>
       <c r="G37" t="n">
-        <v>56.45492874049386</v>
+        <v>56.45492874049383</v>
       </c>
       <c r="H37" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="I37" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="J37" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="K37" t="n">
         <v>115.082562654404</v>
@@ -7123,22 +7123,22 @@
         <v>728.0446617794373</v>
       </c>
       <c r="T37" t="n">
-        <v>625.4828863344078</v>
+        <v>650.9106110191545</v>
       </c>
       <c r="U37" t="n">
-        <v>493.3282446076583</v>
+        <v>518.7559692924051</v>
       </c>
       <c r="V37" t="n">
-        <v>387.6154865971296</v>
+        <v>413.0432112818764</v>
       </c>
       <c r="W37" t="n">
-        <v>256.4816315455774</v>
+        <v>256.4816315455772</v>
       </c>
       <c r="X37" t="n">
-        <v>180.2517138720018</v>
+        <v>180.2517138720016</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.2391014953275</v>
+        <v>113.2391014953274</v>
       </c>
     </row>
     <row r="38">
@@ -7166,22 +7166,22 @@
         <v>226.5680190192529</v>
       </c>
       <c r="H38" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="I38" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="J38" t="n">
-        <v>170.6033384771845</v>
+        <v>170.6033384771847</v>
       </c>
       <c r="K38" t="n">
-        <v>477.2467260668673</v>
+        <v>477.2467260668675</v>
       </c>
       <c r="L38" t="n">
-        <v>907.6349705341572</v>
+        <v>907.6349705341576</v>
       </c>
       <c r="M38" t="n">
-        <v>1392.67447780155</v>
+        <v>1392.674477801551</v>
       </c>
       <c r="N38" t="n">
         <v>1864.291602995484</v>
@@ -7190,7 +7190,7 @@
         <v>2257.383291507238</v>
       </c>
       <c r="P38" t="n">
-        <v>2560.720493293331</v>
+        <v>2560.720493293332</v>
       </c>
       <c r="Q38" t="n">
         <v>2711.61002532209</v>
@@ -7214,7 +7214,7 @@
         <v>2135.268381424224</v>
       </c>
       <c r="X38" t="n">
-        <v>1908.260787376766</v>
+        <v>1908.260787376765</v>
       </c>
       <c r="Y38" t="n">
         <v>1669.741478383652</v>
@@ -7245,19 +7245,19 @@
         <v>209.9694434516677</v>
       </c>
       <c r="H39" t="n">
-        <v>112.7880071483129</v>
+        <v>112.788007148313</v>
       </c>
       <c r="I39" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="J39" t="n">
-        <v>140.9143598633405</v>
+        <v>113.4873369322952</v>
       </c>
       <c r="K39" t="n">
-        <v>415.5745957313408</v>
+        <v>388.1475728002955</v>
       </c>
       <c r="L39" t="n">
-        <v>842.1326543939522</v>
+        <v>388.1475728002955</v>
       </c>
       <c r="M39" t="n">
         <v>944.0572227141473</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84.70627924199633</v>
+        <v>110.1340039267428</v>
       </c>
       <c r="C40" t="n">
-        <v>70.11285613472526</v>
+        <v>95.54058081947173</v>
       </c>
       <c r="D40" t="n">
-        <v>70.11285613472526</v>
+        <v>95.54058081947173</v>
       </c>
       <c r="E40" t="n">
-        <v>70.11285613472526</v>
+        <v>95.54058081947173</v>
       </c>
       <c r="F40" t="n">
-        <v>70.11285613472526</v>
+        <v>95.54058081947173</v>
       </c>
       <c r="G40" t="n">
-        <v>56.45492874049386</v>
+        <v>81.88265342524029</v>
       </c>
       <c r="H40" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="I40" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="J40" t="n">
-        <v>54.2322005064418</v>
+        <v>54.23220050644181</v>
       </c>
       <c r="K40" t="n">
         <v>115.082562654404</v>
@@ -7363,19 +7363,19 @@
         <v>650.9106110191545</v>
       </c>
       <c r="U40" t="n">
-        <v>493.3282446076583</v>
+        <v>518.755969292405</v>
       </c>
       <c r="V40" t="n">
-        <v>387.6154865971296</v>
+        <v>413.0432112818762</v>
       </c>
       <c r="W40" t="n">
-        <v>256.4816315455774</v>
+        <v>281.909356230324</v>
       </c>
       <c r="X40" t="n">
-        <v>180.2517138720018</v>
+        <v>205.6794385567483</v>
       </c>
       <c r="Y40" t="n">
-        <v>113.2391014953275</v>
+        <v>138.666826180074</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>746.2446812559654</v>
       </c>
       <c r="F41" t="n">
-        <v>487.1160369971845</v>
+        <v>487.1160369971844</v>
       </c>
       <c r="G41" t="n">
         <v>226.5680190192527</v>
@@ -7409,13 +7409,13 @@
         <v>54.23220050644181</v>
       </c>
       <c r="J41" t="n">
-        <v>170.6033384771845</v>
+        <v>170.6033384771849</v>
       </c>
       <c r="K41" t="n">
-        <v>477.2467260668673</v>
+        <v>477.2467260668677</v>
       </c>
       <c r="L41" t="n">
-        <v>907.6349705341572</v>
+        <v>907.6349705341577</v>
       </c>
       <c r="M41" t="n">
         <v>1392.674477801551</v>
@@ -7436,10 +7436,10 @@
         <v>2711.61002532209</v>
       </c>
       <c r="S41" t="n">
-        <v>2691.558953326553</v>
+        <v>2691.558953326552</v>
       </c>
       <c r="T41" t="n">
-        <v>2624.557608892595</v>
+        <v>2624.557608892594</v>
       </c>
       <c r="U41" t="n">
         <v>2524.737492808583</v>
@@ -7488,16 +7488,16 @@
         <v>54.23220050644181</v>
       </c>
       <c r="J42" t="n">
-        <v>54.23220050644181</v>
+        <v>140.9143598633405</v>
       </c>
       <c r="K42" t="n">
-        <v>328.8924363744421</v>
+        <v>415.5745957313408</v>
       </c>
       <c r="L42" t="n">
-        <v>755.4504950370534</v>
+        <v>842.1326543939522</v>
       </c>
       <c r="M42" t="n">
-        <v>1311.360144950905</v>
+        <v>1398.042304307804</v>
       </c>
       <c r="N42" t="n">
         <v>1528.075049907697</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.7062792419959</v>
+        <v>110.1340039267441</v>
       </c>
       <c r="C43" t="n">
-        <v>70.11285613472498</v>
+        <v>95.54058081947321</v>
       </c>
       <c r="D43" t="n">
         <v>70.11285613472498</v>
@@ -7594,25 +7594,25 @@
         <v>782.5619706286132</v>
       </c>
       <c r="S43" t="n">
-        <v>702.6169370946893</v>
+        <v>728.0446617794374</v>
       </c>
       <c r="T43" t="n">
-        <v>625.4828863344067</v>
+        <v>650.9106110191548</v>
       </c>
       <c r="U43" t="n">
-        <v>493.3282446076573</v>
+        <v>518.7559692924054</v>
       </c>
       <c r="V43" t="n">
-        <v>387.6154865971287</v>
+        <v>413.0432112818768</v>
       </c>
       <c r="W43" t="n">
-        <v>256.4816315455765</v>
+        <v>281.9093562303248</v>
       </c>
       <c r="X43" t="n">
-        <v>180.2517138720011</v>
+        <v>205.6794385567493</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.2391014953269</v>
+        <v>138.6668261800752</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>746.2446812559651</v>
       </c>
       <c r="F44" t="n">
-        <v>487.1160369971844</v>
+        <v>487.1160369971846</v>
       </c>
       <c r="G44" t="n">
         <v>226.5680190192527</v>
@@ -7646,13 +7646,13 @@
         <v>54.2322005064418</v>
       </c>
       <c r="J44" t="n">
-        <v>170.6033384771845</v>
+        <v>170.6033384771844</v>
       </c>
       <c r="K44" t="n">
         <v>477.2467260668673</v>
       </c>
       <c r="L44" t="n">
-        <v>907.6349705341573</v>
+        <v>907.6349705341572</v>
       </c>
       <c r="M44" t="n">
         <v>1392.67447780155</v>
@@ -7676,7 +7676,7 @@
         <v>2691.558953326552</v>
       </c>
       <c r="T44" t="n">
-        <v>2624.557608892594</v>
+        <v>2624.557608892595</v>
       </c>
       <c r="U44" t="n">
         <v>2524.737492808583</v>
@@ -7737,7 +7737,7 @@
         <v>1398.042304307804</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.075049907697</v>
+        <v>1982.060131501353</v>
       </c>
       <c r="O45" t="n">
         <v>1986.829033079029</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.70627924199607</v>
+        <v>84.7062792419959</v>
       </c>
       <c r="C46" t="n">
-        <v>70.11285613472509</v>
+        <v>70.11285613472498</v>
       </c>
       <c r="D46" t="n">
-        <v>70.11285613472509</v>
+        <v>70.11285613472498</v>
       </c>
       <c r="E46" t="n">
-        <v>70.11285613472509</v>
+        <v>70.11285613472498</v>
       </c>
       <c r="F46" t="n">
-        <v>70.11285613472509</v>
+        <v>70.11285613472498</v>
       </c>
       <c r="G46" t="n">
-        <v>56.45492874049377</v>
+        <v>56.45492874049371</v>
       </c>
       <c r="H46" t="n">
         <v>54.2322005064418</v>
@@ -7831,25 +7831,25 @@
         <v>782.5619706286132</v>
       </c>
       <c r="S46" t="n">
-        <v>702.6169370946898</v>
+        <v>728.0446617794374</v>
       </c>
       <c r="T46" t="n">
-        <v>625.4828863344071</v>
+        <v>650.9106110191548</v>
       </c>
       <c r="U46" t="n">
-        <v>493.3282446076577</v>
+        <v>518.7559692924054</v>
       </c>
       <c r="V46" t="n">
-        <v>387.615486597129</v>
+        <v>387.6154865971287</v>
       </c>
       <c r="W46" t="n">
-        <v>256.4816315455769</v>
+        <v>256.4816315455765</v>
       </c>
       <c r="X46" t="n">
-        <v>180.2517138720013</v>
+        <v>180.2517138720011</v>
       </c>
       <c r="Y46" t="n">
-        <v>113.2391014953272</v>
+        <v>113.2391014953269</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>201.569890946046</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>196.7615618141134</v>
       </c>
       <c r="N8" t="n">
-        <v>196.0033614891845</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>196.9644755630518</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>197.8864878340879</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,28 +8529,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>113.0652504495981</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>122.1806808881021</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>116.7248198506397</v>
       </c>
       <c r="O9" t="n">
-        <v>125.4646959280655</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
         <v>118.8638848070747</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.7448702278239</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8611,22 +8611,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
         <v>122.8868782403605</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7541836609333</v>
+        <v>113.3497521949563</v>
       </c>
       <c r="O10" t="n">
-        <v>122.5056162750536</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
-        <v>121.5092506068868</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8702,10 +8702,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>317.4734357531457</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>240.7715207345045</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>76.3606092183914</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8778,16 +8778,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>164.5742971580776</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>238.4213369523353</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>77.6676835717852</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>194.6724685511899</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8939,7 +8939,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>469.8871044690635</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
@@ -9003,16 +9003,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>76.36060921839139</v>
+        <v>76.3606092183914</v>
       </c>
       <c r="K15" t="n">
-        <v>66.37022643150341</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>593.5059521040841</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>54.8991772384319</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5220029770501</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>194.6724685511904</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>406.8007936522586</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>123.5958191419587</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,13 +9240,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>76.3606092183914</v>
       </c>
       <c r="K18" t="n">
-        <v>316.1007445496395</v>
+        <v>66.37022643150343</v>
       </c>
       <c r="L18" t="n">
-        <v>51.22572297266726</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>179.5220029770506</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>102.2789957128447</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>361.3688404649424</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9413,7 +9413,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>317.4734357531452</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
@@ -9477,16 +9477,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>76.3606092183914</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>168.2245458367686</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>146.8457933864574</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>77.6676835717852</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>76.3606092183914</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9726,16 +9726,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>164.5742971580774</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>238.4213369523353</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>77.6676835717852</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,16 +9951,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>76.3606092183914</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>168.2245458367686</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>146.8457933864576</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>77.6676835717852</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>76.36060921839139</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>146.8457933864573</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>252.1320338822172</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>146.8457933864576</v>
       </c>
       <c r="N33" t="n">
-        <v>164.5742971580772</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10601,7 +10601,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229273</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>76.3606092183914</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>244.3364406212965</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>238.4213369523353</v>
+        <v>54.8991772384319</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.6676835717852</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10899,16 +10899,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>136.2142823758191</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>51.22572297266728</v>
       </c>
       <c r="M39" t="n">
-        <v>146.8457933864578</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236963</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11066,7 +11066,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>584.3675935406827</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>76.3606092183914</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>252.1320338822177</v>
+        <v>164.5742971580774</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11385,10 +11385,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>164.5742971580774</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>53.4502255712064</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23258,10 +23258,10 @@
         <v>293.6396894554686</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>281.6510064131504</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>272.6323104576783</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>227.6213666270507</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>123.3402372889862</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>88.68009596274376</v>
+        <v>155.8308212225385</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>22.6705839879642</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>293.14302220255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>53.66238316581985</v>
+        <v>55.07775957314456</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>23.45887308151697</v>
       </c>
       <c r="F13" t="n">
-        <v>54.49243375711028</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>70.53025441965691</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.91207015138665</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>281.6510064131502</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>245.1811722543976</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>294.3744480275839</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>313.546264115561</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>314.9514440975199</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>54.26650277500699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>49.28575252112773</v>
       </c>
       <c r="V14" t="n">
-        <v>237.1460666956476</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>262.4461661736045</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>71.45639517556606</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.07775957314445</v>
+        <v>55.07775957314456</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>54.02550942892401</v>
       </c>
       <c r="F16" t="n">
-        <v>22.5327323256051</v>
+        <v>39.96361807224971</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.879974657854554</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>66.33133098961841</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>98.82191492317065</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>174.0332205706444</v>
       </c>
     </row>
     <row r="18">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>174.033220570643</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>66.33133098961841</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>107.7018895810252</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874444.2882851011</v>
+        <v>874444.2882851008</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874444.2882851008</v>
+        <v>874444.2882851011</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>951229.3281825922</v>
+        <v>951229.3281825919</v>
       </c>
     </row>
     <row r="8">
@@ -26317,10 +26317,10 @@
         <v>516966.7262674305</v>
       </c>
       <c r="D2" t="n">
-        <v>518042.3663494443</v>
+        <v>518042.3663494442</v>
       </c>
       <c r="E2" t="n">
-        <v>460581.5736310967</v>
+        <v>460581.5736310966</v>
       </c>
       <c r="F2" t="n">
         <v>460581.5736310964</v>
@@ -26329,7 +26329,7 @@
         <v>508795.435892312</v>
       </c>
       <c r="H2" t="n">
-        <v>508795.4358923123</v>
+        <v>508795.4358923124</v>
       </c>
       <c r="I2" t="n">
         <v>518146.2408335725</v>
@@ -26338,22 +26338,22 @@
         <v>518146.2408335733</v>
       </c>
       <c r="K2" t="n">
-        <v>518146.2408335735</v>
+        <v>518146.2408335733</v>
       </c>
       <c r="L2" t="n">
         <v>518146.2408335733</v>
       </c>
       <c r="M2" t="n">
-        <v>518146.2408335726</v>
+        <v>518146.2408335725</v>
       </c>
       <c r="N2" t="n">
-        <v>518146.2408335727</v>
+        <v>518146.2408335725</v>
       </c>
       <c r="O2" t="n">
         <v>518146.2408335728</v>
       </c>
       <c r="P2" t="n">
-        <v>518146.2408335725</v>
+        <v>518146.2408335726</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>3109.306520341968</v>
       </c>
       <c r="E3" t="n">
-        <v>368735.7221940458</v>
+        <v>368735.7221940457</v>
       </c>
       <c r="F3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45607.12503949417</v>
+        <v>45607.12503949428</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11925.14122020361</v>
+        <v>11925.14122020364</v>
       </c>
       <c r="J3" t="n">
-        <v>87710.73798756706</v>
+        <v>87710.73798756683</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47678.88831527014</v>
+        <v>47678.88831527039</v>
       </c>
       <c r="M3" t="n">
         <v>147580.4921053314</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>36565.68337217531</v>
+        <v>36565.68337217527</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,16 +26421,16 @@
         <v>392532.9083931244</v>
       </c>
       <c r="D4" t="n">
-        <v>392094.6976652482</v>
+        <v>392094.6976652483</v>
       </c>
       <c r="E4" t="n">
-        <v>241458.8489904208</v>
+        <v>241458.8489904207</v>
       </c>
       <c r="F4" t="n">
-        <v>241458.8489904208</v>
+        <v>241458.8489904207</v>
       </c>
       <c r="G4" t="n">
-        <v>282008.2524914544</v>
+        <v>282008.2524914545</v>
       </c>
       <c r="H4" t="n">
         <v>282008.2524914545</v>
@@ -26442,7 +26442,7 @@
         <v>287650.0665744124</v>
       </c>
       <c r="K4" t="n">
-        <v>287650.0665744125</v>
+        <v>287650.0665744123</v>
       </c>
       <c r="L4" t="n">
         <v>287596.4536967478</v>
@@ -26476,34 +26476,34 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>49463.1876047998</v>
+        <v>49463.18760479979</v>
       </c>
       <c r="F5" t="n">
-        <v>49463.1876047998</v>
+        <v>49463.18760479979</v>
       </c>
       <c r="G5" t="n">
-        <v>54255.86934848134</v>
+        <v>54255.86934848136</v>
       </c>
       <c r="H5" t="n">
-        <v>54255.86934848134</v>
+        <v>54255.86934848136</v>
       </c>
       <c r="I5" t="n">
-        <v>56982.4256798293</v>
+        <v>56982.42567982931</v>
       </c>
       <c r="J5" t="n">
-        <v>64600.31843139362</v>
+        <v>64600.31843139359</v>
       </c>
       <c r="K5" t="n">
-        <v>64600.31843139362</v>
+        <v>64600.31843139359</v>
       </c>
       <c r="L5" t="n">
         <v>64209.4437949304</v>
       </c>
       <c r="M5" t="n">
-        <v>56982.4256798293</v>
+        <v>56982.42567982931</v>
       </c>
       <c r="N5" t="n">
-        <v>56982.4256798293</v>
+        <v>56982.42567982931</v>
       </c>
       <c r="O5" t="n">
         <v>56982.42567982932</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90806.21787430617</v>
+        <v>90801.84930183891</v>
       </c>
       <c r="C6" t="n">
-        <v>90806.21787430611</v>
+        <v>90801.84930183891</v>
       </c>
       <c r="D6" t="n">
-        <v>88602.17369385183</v>
+        <v>88601.78897354013</v>
       </c>
       <c r="E6" t="n">
-        <v>-199076.1851581696</v>
+        <v>-199289.3876292898</v>
       </c>
       <c r="F6" t="n">
-        <v>169659.5370358758</v>
+        <v>169446.3345647556</v>
       </c>
       <c r="G6" t="n">
-        <v>126924.189012882</v>
+        <v>126889.5564019883</v>
       </c>
       <c r="H6" t="n">
-        <v>172531.3140523764</v>
+        <v>172496.681441483</v>
       </c>
       <c r="I6" t="n">
-        <v>162615.566853065</v>
+        <v>162615.5668530649</v>
       </c>
       <c r="J6" t="n">
-        <v>78185.11784020017</v>
+        <v>78185.11784020055</v>
       </c>
       <c r="K6" t="n">
         <v>165895.8558277673</v>
       </c>
       <c r="L6" t="n">
-        <v>118661.455026625</v>
+        <v>118661.4550266247</v>
       </c>
       <c r="M6" t="n">
-        <v>26960.21596793728</v>
+        <v>26960.21596793715</v>
       </c>
       <c r="N6" t="n">
-        <v>174540.7080732688</v>
+        <v>174540.7080732686</v>
       </c>
       <c r="O6" t="n">
         <v>137975.0247010934</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="F2" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="G2" t="n">
         <v>153.4723209667382</v>
@@ -26713,19 +26713,19 @@
         <v>102.7160105145868</v>
       </c>
       <c r="L2" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="M2" t="n">
         <v>153.4723209667382</v>
       </c>
       <c r="N2" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="O2" t="n">
         <v>153.4723209667383</v>
       </c>
       <c r="P2" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
     </row>
     <row r="3">
@@ -26799,31 +26799,31 @@
         <v>633.0578298280891</v>
       </c>
       <c r="F4" t="n">
-        <v>633.057829828089</v>
+        <v>633.0578298280891</v>
       </c>
       <c r="G4" t="n">
-        <v>633.057829828089</v>
+        <v>633.0578298280891</v>
       </c>
       <c r="H4" t="n">
-        <v>633.057829828089</v>
+        <v>633.0578298280891</v>
       </c>
       <c r="I4" t="n">
-        <v>677.9025063305224</v>
+        <v>677.9025063305227</v>
       </c>
       <c r="J4" t="n">
-        <v>873.3782467082566</v>
+        <v>873.3782467082561</v>
       </c>
       <c r="K4" t="n">
-        <v>873.3782467082566</v>
+        <v>873.3782467082561</v>
       </c>
       <c r="L4" t="n">
-        <v>863.3685679253252</v>
+        <v>863.3685679253248</v>
       </c>
       <c r="M4" t="n">
-        <v>677.9025063305224</v>
+        <v>677.9025063305226</v>
       </c>
       <c r="N4" t="n">
-        <v>677.9025063305224</v>
+        <v>677.9025063305226</v>
       </c>
       <c r="O4" t="n">
         <v>677.9025063305226</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="F2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.00890629936771</v>
+        <v>57.00890629936785</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.70710421521899</v>
+        <v>45.70710421521892</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.59861039408767</v>
+        <v>59.59861039408798</v>
       </c>
       <c r="M2" t="n">
-        <v>48.16660635743139</v>
+        <v>48.16660635743129</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>45.70710421521913</v>
+        <v>45.70710421521909</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.84467650243346</v>
+        <v>44.84467650243357</v>
       </c>
       <c r="J4" t="n">
-        <v>195.4757403777342</v>
+        <v>195.4757403777335</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>437.5820894503549</v>
+        <v>437.5820894503555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.00890629936771</v>
+        <v>57.00890629936785</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>45.70710421521899</v>
+        <v>45.70710421521892</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>161.0793480203606</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>175.3470068330182</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>243.51995785114</v>
       </c>
       <c r="V8" t="n">
-        <v>324.7929562910121</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27941,13 +27941,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>124.5303349976185</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>117.4315361940169</v>
       </c>
       <c r="H9" t="n">
-        <v>90.12195380676299</v>
+        <v>88.92880009583757</v>
       </c>
       <c r="I9" t="n">
         <v>57.68878367390825</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.17674743307231</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2618133344558</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.7101362146047</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>142.724649168509</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>140.479245313363</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28029,10 +28029,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>132.7513351704169</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>49.44698741703764</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.14228914991649</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>138.0168847888342</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.9982821476397</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="C11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="D11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="E11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="F11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="G11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="H11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="I11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>56.55940111935799</v>
+        <v>56.55940111935801</v>
       </c>
       <c r="S11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="T11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="U11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="V11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="W11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="X11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="Y11" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="C13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="D13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="E13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="F13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="G13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="H13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="I13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="J13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="K13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="L13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="M13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="N13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="O13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="P13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="R13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="S13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="T13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="U13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="V13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="W13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="X13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.46341466737037</v>
+        <v>96.46341466737033</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="C14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="D14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="E14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="F14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="G14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="H14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="I14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.55940111935799</v>
+        <v>56.55940111935801</v>
       </c>
       <c r="S14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="T14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="U14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="V14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="W14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="X14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="Y14" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="C16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="D16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="E16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="F16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="G16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="H16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="I16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="J16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="K16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="L16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="M16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="N16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="O16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="P16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="R16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="S16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="T16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="U16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="V16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="W16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="X16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.46341466737044</v>
+        <v>96.46341466737033</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.55940111935799</v>
+        <v>56.55940111935801</v>
       </c>
       <c r="S17" t="n">
         <v>153.4723209667382</v>
@@ -28743,7 +28743,7 @@
         <v>135.6373244032164</v>
       </c>
       <c r="J19" t="n">
-        <v>42.70910464272123</v>
+        <v>42.70910464272124</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>18.31632571813664</v>
       </c>
       <c r="R19" t="n">
         <v>137.375484818757</v>
@@ -28773,10 +28773,10 @@
         <v>153.4723209667382</v>
       </c>
       <c r="T19" t="n">
+        <v>128.2988735288386</v>
+      </c>
+      <c r="U19" t="n">
         <v>153.4723209667382</v>
-      </c>
-      <c r="U19" t="n">
-        <v>146.6151992469755</v>
       </c>
       <c r="V19" t="n">
         <v>153.4723209667382</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>56.55940111935799</v>
+        <v>56.55940111935801</v>
       </c>
       <c r="S20" t="n">
         <v>153.4723209667382</v>
@@ -28977,10 +28977,10 @@
         <v>153.4723209667382</v>
       </c>
       <c r="I22" t="n">
-        <v>135.6373244032164</v>
+        <v>110.4638769653168</v>
       </c>
       <c r="J22" t="n">
-        <v>42.70910464272123</v>
+        <v>42.70910464272124</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.31632571813663</v>
+        <v>18.31632571813664</v>
       </c>
       <c r="R22" t="n">
         <v>137.375484818757</v>
@@ -29013,7 +29013,7 @@
         <v>153.4723209667382</v>
       </c>
       <c r="U22" t="n">
-        <v>128.2988735288389</v>
+        <v>153.4723209667382</v>
       </c>
       <c r="V22" t="n">
         <v>153.4723209667382</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>56.55940111935799</v>
+        <v>56.55940111935801</v>
       </c>
       <c r="S23" t="n">
         <v>153.4723209667382</v>
@@ -29217,7 +29217,7 @@
         <v>135.6373244032164</v>
       </c>
       <c r="J25" t="n">
-        <v>42.70910464272123</v>
+        <v>42.70910464272124</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.31632571813663</v>
+        <v>18.31632571813664</v>
       </c>
       <c r="R25" t="n">
         <v>137.375484818757</v>
       </c>
       <c r="S25" t="n">
-        <v>128.2988735288389</v>
+        <v>153.4723209667382</v>
       </c>
       <c r="T25" t="n">
         <v>153.4723209667382</v>
@@ -29253,7 +29253,7 @@
         <v>153.4723209667382</v>
       </c>
       <c r="V25" t="n">
-        <v>153.4723209667382</v>
+        <v>128.2988735288387</v>
       </c>
       <c r="W25" t="n">
         <v>153.4723209667382</v>
@@ -29296,7 +29296,7 @@
         <v>102.7160105145868</v>
       </c>
       <c r="J26" t="n">
-        <v>102.7160105145868</v>
+        <v>8.836268801366813</v>
       </c>
       <c r="K26" t="n">
         <v>102.7160105145868</v>
@@ -29308,7 +29308,7 @@
         <v>102.7160105145868</v>
       </c>
       <c r="N26" t="n">
-        <v>8.83626880136859</v>
+        <v>102.7160105145868</v>
       </c>
       <c r="O26" t="n">
         <v>102.7160105145868</v>
@@ -29539,13 +29539,13 @@
         <v>102.7160105145868</v>
       </c>
       <c r="L29" t="n">
-        <v>8.836268801368533</v>
+        <v>102.7160105145868</v>
       </c>
       <c r="M29" t="n">
         <v>102.7160105145868</v>
       </c>
       <c r="N29" t="n">
-        <v>102.7160105145868</v>
+        <v>8.836268801366657</v>
       </c>
       <c r="O29" t="n">
         <v>102.7160105145868</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="C32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="D32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="E32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="F32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="G32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="H32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="I32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="K32" t="n">
-        <v>53.79006698716762</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="L32" t="n">
-        <v>105.3057146093068</v>
+        <v>53.79006698716461</v>
       </c>
       <c r="M32" t="n">
-        <v>105.3057146093068</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="O32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="P32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="R32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="S32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="T32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="U32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="V32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="W32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="X32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="C34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="D34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="E34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="F34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="G34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="H34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="I34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="J34" t="n">
-        <v>42.70910464272124</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="K34" t="n">
-        <v>104.9081225746681</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="L34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="M34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="N34" t="n">
-        <v>105.3057146093068</v>
+        <v>42.31151260807891</v>
       </c>
       <c r="O34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="P34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="R34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="S34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="T34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="U34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="V34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="W34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="X34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.3057146093068</v>
+        <v>105.3057146093069</v>
       </c>
     </row>
     <row r="35">
@@ -30195,7 +30195,7 @@
         <v>153.4723209667382</v>
       </c>
       <c r="T37" t="n">
-        <v>128.2988735288389</v>
+        <v>153.4723209667382</v>
       </c>
       <c r="U37" t="n">
         <v>153.4723209667382</v>
@@ -30204,7 +30204,7 @@
         <v>153.4723209667382</v>
       </c>
       <c r="W37" t="n">
-        <v>153.4723209667382</v>
+        <v>128.2988735288387</v>
       </c>
       <c r="X37" t="n">
         <v>153.4723209667382</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="C38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="D38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="E38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="F38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="G38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="H38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="I38" t="n">
         <v>150.7299174423773</v>
@@ -30271,25 +30271,25 @@
         <v>56.55940111935801</v>
       </c>
       <c r="S38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="T38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="U38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="V38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="W38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="X38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="Y38" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="C40" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="H40" t="n">
-        <v>153.4723209667382</v>
+        <v>128.2988735288392</v>
       </c>
       <c r="I40" t="n">
         <v>135.6373244032164</v>
@@ -30429,25 +30429,25 @@
         <v>137.375484818757</v>
       </c>
       <c r="S40" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="U40" t="n">
-        <v>128.2988735288389</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="V40" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="W40" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="X40" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667381</v>
       </c>
     </row>
     <row r="41">
@@ -30621,7 +30621,7 @@
         <v>153.4723209667383</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>126.3677268026141</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30666,7 +30666,7 @@
         <v>137.375484818757</v>
       </c>
       <c r="S43" t="n">
-        <v>128.2988735288376</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="T43" t="n">
         <v>153.4723209667383</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="C44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="D44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="E44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="F44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="G44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="H44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="I44" t="n">
         <v>150.7299174423773</v>
@@ -30745,25 +30745,25 @@
         <v>56.55940111935801</v>
       </c>
       <c r="S44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="T44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="U44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="V44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="W44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="X44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="Y44" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="C46" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="H46" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="I46" t="n">
         <v>135.6373244032164</v>
@@ -30903,25 +30903,25 @@
         <v>137.375484818757</v>
       </c>
       <c r="S46" t="n">
-        <v>128.2988735288381</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="U46" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="V46" t="n">
-        <v>153.4723209667382</v>
+        <v>128.2988735288376</v>
       </c>
       <c r="W46" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="X46" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.4723209667382</v>
+        <v>153.4723209667383</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5280879154637083</v>
+        <v>0.5280879154637079</v>
       </c>
       <c r="H11" t="n">
-        <v>5.408280364242703</v>
+        <v>5.4082803642427</v>
       </c>
       <c r="I11" t="n">
-        <v>20.35910936091463</v>
+        <v>20.35910936091462</v>
       </c>
       <c r="J11" t="n">
-        <v>44.82080171508795</v>
+        <v>44.82080171508792</v>
       </c>
       <c r="K11" t="n">
-        <v>67.17476317666673</v>
+        <v>67.1747631766667</v>
       </c>
       <c r="L11" t="n">
-        <v>83.33623371953921</v>
+        <v>83.33623371953917</v>
       </c>
       <c r="M11" t="n">
-        <v>92.72761718616692</v>
+        <v>92.72761718616688</v>
       </c>
       <c r="N11" t="n">
-        <v>94.22804697597819</v>
+        <v>94.22804697597815</v>
       </c>
       <c r="O11" t="n">
-        <v>88.97687276658594</v>
+        <v>88.9768727665859</v>
       </c>
       <c r="P11" t="n">
-        <v>75.93970235357563</v>
+        <v>75.9397023535756</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.02755388103156</v>
+        <v>57.02755388103154</v>
       </c>
       <c r="R11" t="n">
-        <v>33.17250251974719</v>
+        <v>33.17250251974718</v>
       </c>
       <c r="S11" t="n">
         <v>12.03380337362926</v>
       </c>
       <c r="T11" t="n">
-        <v>2.311704849942384</v>
+        <v>2.311704849942383</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04224703323709665</v>
+        <v>0.04224703323709663</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2825519445804173</v>
+        <v>0.2825519445804172</v>
       </c>
       <c r="H12" t="n">
-        <v>2.728856938447715</v>
+        <v>2.728856938447714</v>
       </c>
       <c r="I12" t="n">
-        <v>9.728213881387177</v>
+        <v>9.728213881387171</v>
       </c>
       <c r="J12" t="n">
-        <v>26.69496244827531</v>
+        <v>26.69496244827529</v>
       </c>
       <c r="K12" t="n">
-        <v>45.62594273516326</v>
+        <v>45.62594273516324</v>
       </c>
       <c r="L12" t="n">
-        <v>61.34971059848053</v>
+        <v>61.3497105984805</v>
       </c>
       <c r="M12" t="n">
-        <v>71.59221858952064</v>
+        <v>71.59221858952061</v>
       </c>
       <c r="N12" t="n">
-        <v>73.48705158629021</v>
+        <v>73.48705158629018</v>
       </c>
       <c r="O12" t="n">
-        <v>67.22629534058727</v>
+        <v>67.22629534058724</v>
       </c>
       <c r="P12" t="n">
-        <v>53.95502878571145</v>
+        <v>53.95502878571142</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.06750787310731</v>
+        <v>36.06750787310729</v>
       </c>
       <c r="R12" t="n">
-        <v>17.54300582228241</v>
+        <v>17.5430058222824</v>
       </c>
       <c r="S12" t="n">
-        <v>5.248278444289765</v>
+        <v>5.248278444289763</v>
       </c>
       <c r="T12" t="n">
         <v>1.138882618725453</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2368820588012414</v>
+        <v>0.2368820588012413</v>
       </c>
       <c r="H13" t="n">
-        <v>2.10609685006922</v>
+        <v>2.106096850069219</v>
       </c>
       <c r="I13" t="n">
-        <v>7.12368955013188</v>
+        <v>7.123689550131877</v>
       </c>
       <c r="J13" t="n">
-        <v>16.74756155724777</v>
+        <v>16.74756155724776</v>
       </c>
       <c r="K13" t="n">
-        <v>27.52138828618058</v>
+        <v>27.52138828618057</v>
       </c>
       <c r="L13" t="n">
-        <v>35.21790172395912</v>
+        <v>35.21790172395909</v>
       </c>
       <c r="M13" t="n">
-        <v>37.1323394537255</v>
+        <v>37.13233945372549</v>
       </c>
       <c r="N13" t="n">
-        <v>36.24941541637545</v>
+        <v>36.24941541637543</v>
       </c>
       <c r="O13" t="n">
-        <v>33.48220227492457</v>
+        <v>33.48220227492455</v>
       </c>
       <c r="P13" t="n">
-        <v>28.64980827537922</v>
+        <v>28.64980827537921</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.83564221471122</v>
+        <v>19.83564221471121</v>
       </c>
       <c r="R13" t="n">
         <v>10.65107875300854</v>
       </c>
       <c r="S13" t="n">
-        <v>4.128208242927087</v>
+        <v>4.128208242927085</v>
       </c>
       <c r="T13" t="n">
         <v>1.012132433059849</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01292083957097682</v>
+        <v>0.01292083957097681</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5280879154637083</v>
+        <v>0.5280879154637079</v>
       </c>
       <c r="H14" t="n">
-        <v>5.408280364242703</v>
+        <v>5.4082803642427</v>
       </c>
       <c r="I14" t="n">
-        <v>20.35910936091463</v>
+        <v>20.35910936091462</v>
       </c>
       <c r="J14" t="n">
-        <v>44.82080171508795</v>
+        <v>44.82080171508792</v>
       </c>
       <c r="K14" t="n">
-        <v>67.17476317666673</v>
+        <v>67.1747631766667</v>
       </c>
       <c r="L14" t="n">
-        <v>83.33623371953921</v>
+        <v>83.33623371953917</v>
       </c>
       <c r="M14" t="n">
-        <v>92.72761718616692</v>
+        <v>92.72761718616688</v>
       </c>
       <c r="N14" t="n">
-        <v>94.22804697597819</v>
+        <v>94.22804697597815</v>
       </c>
       <c r="O14" t="n">
-        <v>88.97687276658594</v>
+        <v>88.9768727665859</v>
       </c>
       <c r="P14" t="n">
-        <v>75.93970235357563</v>
+        <v>75.9397023535756</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.02755388103156</v>
+        <v>57.02755388103154</v>
       </c>
       <c r="R14" t="n">
-        <v>33.17250251974719</v>
+        <v>33.17250251974718</v>
       </c>
       <c r="S14" t="n">
         <v>12.03380337362926</v>
       </c>
       <c r="T14" t="n">
-        <v>2.311704849942384</v>
+        <v>2.311704849942383</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04224703323709665</v>
+        <v>0.04224703323709663</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2825519445804173</v>
+        <v>0.2825519445804172</v>
       </c>
       <c r="H15" t="n">
-        <v>2.728856938447715</v>
+        <v>2.728856938447714</v>
       </c>
       <c r="I15" t="n">
-        <v>9.728213881387177</v>
+        <v>9.728213881387171</v>
       </c>
       <c r="J15" t="n">
-        <v>26.69496244827531</v>
+        <v>26.69496244827529</v>
       </c>
       <c r="K15" t="n">
-        <v>45.62594273516326</v>
+        <v>45.62594273516324</v>
       </c>
       <c r="L15" t="n">
-        <v>61.34971059848053</v>
+        <v>61.3497105984805</v>
       </c>
       <c r="M15" t="n">
-        <v>71.59221858952064</v>
+        <v>71.59221858952061</v>
       </c>
       <c r="N15" t="n">
-        <v>73.48705158629021</v>
+        <v>73.48705158629018</v>
       </c>
       <c r="O15" t="n">
-        <v>67.22629534058727</v>
+        <v>67.22629534058724</v>
       </c>
       <c r="P15" t="n">
-        <v>53.95502878571145</v>
+        <v>53.95502878571142</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.06750787310731</v>
+        <v>36.06750787310729</v>
       </c>
       <c r="R15" t="n">
-        <v>17.54300582228241</v>
+        <v>17.5430058222824</v>
       </c>
       <c r="S15" t="n">
-        <v>5.248278444289765</v>
+        <v>5.248278444289763</v>
       </c>
       <c r="T15" t="n">
         <v>1.138882618725453</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2368820588012414</v>
+        <v>0.2368820588012413</v>
       </c>
       <c r="H16" t="n">
-        <v>2.10609685006922</v>
+        <v>2.106096850069219</v>
       </c>
       <c r="I16" t="n">
-        <v>7.12368955013188</v>
+        <v>7.123689550131877</v>
       </c>
       <c r="J16" t="n">
-        <v>16.74756155724777</v>
+        <v>16.74756155724776</v>
       </c>
       <c r="K16" t="n">
-        <v>27.52138828618058</v>
+        <v>27.52138828618057</v>
       </c>
       <c r="L16" t="n">
-        <v>35.21790172395912</v>
+        <v>35.21790172395909</v>
       </c>
       <c r="M16" t="n">
-        <v>37.1323394537255</v>
+        <v>37.13233945372549</v>
       </c>
       <c r="N16" t="n">
-        <v>36.24941541637545</v>
+        <v>36.24941541637543</v>
       </c>
       <c r="O16" t="n">
-        <v>33.48220227492457</v>
+        <v>33.48220227492455</v>
       </c>
       <c r="P16" t="n">
-        <v>28.64980827537922</v>
+        <v>28.64980827537921</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.83564221471122</v>
+        <v>19.83564221471121</v>
       </c>
       <c r="R16" t="n">
         <v>10.65107875300854</v>
       </c>
       <c r="S16" t="n">
-        <v>4.128208242927087</v>
+        <v>4.128208242927085</v>
       </c>
       <c r="T16" t="n">
         <v>1.012132433059849</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01292083957097682</v>
+        <v>0.01292083957097681</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5280879154637083</v>
+        <v>0.5280879154637079</v>
       </c>
       <c r="H17" t="n">
-        <v>5.408280364242703</v>
+        <v>5.4082803642427</v>
       </c>
       <c r="I17" t="n">
-        <v>20.35910936091463</v>
+        <v>20.35910936091462</v>
       </c>
       <c r="J17" t="n">
-        <v>44.82080171508795</v>
+        <v>44.82080171508792</v>
       </c>
       <c r="K17" t="n">
-        <v>67.17476317666673</v>
+        <v>67.1747631766667</v>
       </c>
       <c r="L17" t="n">
-        <v>83.33623371953921</v>
+        <v>83.33623371953917</v>
       </c>
       <c r="M17" t="n">
-        <v>92.72761718616692</v>
+        <v>92.72761718616688</v>
       </c>
       <c r="N17" t="n">
-        <v>94.22804697597819</v>
+        <v>94.22804697597815</v>
       </c>
       <c r="O17" t="n">
-        <v>88.97687276658594</v>
+        <v>88.9768727665859</v>
       </c>
       <c r="P17" t="n">
-        <v>75.93970235357563</v>
+        <v>75.9397023535756</v>
       </c>
       <c r="Q17" t="n">
-        <v>57.02755388103156</v>
+        <v>57.02755388103154</v>
       </c>
       <c r="R17" t="n">
-        <v>33.17250251974719</v>
+        <v>33.17250251974718</v>
       </c>
       <c r="S17" t="n">
         <v>12.03380337362926</v>
       </c>
       <c r="T17" t="n">
-        <v>2.311704849942384</v>
+        <v>2.311704849942383</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04224703323709665</v>
+        <v>0.04224703323709663</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2825519445804173</v>
+        <v>0.2825519445804172</v>
       </c>
       <c r="H18" t="n">
-        <v>2.728856938447715</v>
+        <v>2.728856938447714</v>
       </c>
       <c r="I18" t="n">
-        <v>9.728213881387177</v>
+        <v>9.728213881387171</v>
       </c>
       <c r="J18" t="n">
-        <v>26.69496244827531</v>
+        <v>26.69496244827529</v>
       </c>
       <c r="K18" t="n">
-        <v>45.62594273516326</v>
+        <v>45.62594273516324</v>
       </c>
       <c r="L18" t="n">
-        <v>61.34971059848053</v>
+        <v>61.3497105984805</v>
       </c>
       <c r="M18" t="n">
-        <v>71.59221858952064</v>
+        <v>71.59221858952061</v>
       </c>
       <c r="N18" t="n">
-        <v>73.48705158629021</v>
+        <v>73.48705158629018</v>
       </c>
       <c r="O18" t="n">
-        <v>67.22629534058727</v>
+        <v>67.22629534058724</v>
       </c>
       <c r="P18" t="n">
-        <v>53.95502878571145</v>
+        <v>53.95502878571142</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.06750787310731</v>
+        <v>36.06750787310729</v>
       </c>
       <c r="R18" t="n">
-        <v>17.54300582228241</v>
+        <v>17.5430058222824</v>
       </c>
       <c r="S18" t="n">
-        <v>5.248278444289765</v>
+        <v>5.248278444289763</v>
       </c>
       <c r="T18" t="n">
         <v>1.138882618725453</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2368820588012414</v>
+        <v>0.2368820588012413</v>
       </c>
       <c r="H19" t="n">
-        <v>2.10609685006922</v>
+        <v>2.106096850069219</v>
       </c>
       <c r="I19" t="n">
-        <v>7.12368955013188</v>
+        <v>7.123689550131877</v>
       </c>
       <c r="J19" t="n">
-        <v>16.74756155724777</v>
+        <v>16.74756155724776</v>
       </c>
       <c r="K19" t="n">
-        <v>27.52138828618058</v>
+        <v>27.52138828618057</v>
       </c>
       <c r="L19" t="n">
-        <v>35.21790172395912</v>
+        <v>35.21790172395909</v>
       </c>
       <c r="M19" t="n">
-        <v>37.1323394537255</v>
+        <v>37.13233945372549</v>
       </c>
       <c r="N19" t="n">
-        <v>36.24941541637545</v>
+        <v>36.24941541637543</v>
       </c>
       <c r="O19" t="n">
-        <v>33.48220227492457</v>
+        <v>33.48220227492455</v>
       </c>
       <c r="P19" t="n">
-        <v>28.64980827537922</v>
+        <v>28.64980827537921</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.83564221471122</v>
+        <v>19.83564221471121</v>
       </c>
       <c r="R19" t="n">
         <v>10.65107875300854</v>
       </c>
       <c r="S19" t="n">
-        <v>4.128208242927087</v>
+        <v>4.128208242927085</v>
       </c>
       <c r="T19" t="n">
         <v>1.012132433059849</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01292083957097682</v>
+        <v>0.01292083957097681</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5280879154637083</v>
+        <v>0.5280879154637079</v>
       </c>
       <c r="H20" t="n">
-        <v>5.408280364242703</v>
+        <v>5.4082803642427</v>
       </c>
       <c r="I20" t="n">
-        <v>20.35910936091463</v>
+        <v>20.35910936091462</v>
       </c>
       <c r="J20" t="n">
-        <v>44.82080171508795</v>
+        <v>44.82080171508792</v>
       </c>
       <c r="K20" t="n">
-        <v>67.17476317666673</v>
+        <v>67.1747631766667</v>
       </c>
       <c r="L20" t="n">
-        <v>83.33623371953921</v>
+        <v>83.33623371953917</v>
       </c>
       <c r="M20" t="n">
-        <v>92.72761718616692</v>
+        <v>92.72761718616688</v>
       </c>
       <c r="N20" t="n">
-        <v>94.22804697597819</v>
+        <v>94.22804697597815</v>
       </c>
       <c r="O20" t="n">
-        <v>88.97687276658594</v>
+        <v>88.9768727665859</v>
       </c>
       <c r="P20" t="n">
-        <v>75.93970235357563</v>
+        <v>75.9397023535756</v>
       </c>
       <c r="Q20" t="n">
-        <v>57.02755388103156</v>
+        <v>57.02755388103154</v>
       </c>
       <c r="R20" t="n">
-        <v>33.17250251974719</v>
+        <v>33.17250251974718</v>
       </c>
       <c r="S20" t="n">
         <v>12.03380337362926</v>
       </c>
       <c r="T20" t="n">
-        <v>2.311704849942384</v>
+        <v>2.311704849942383</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04224703323709665</v>
+        <v>0.04224703323709663</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2825519445804173</v>
+        <v>0.2825519445804172</v>
       </c>
       <c r="H21" t="n">
-        <v>2.728856938447715</v>
+        <v>2.728856938447714</v>
       </c>
       <c r="I21" t="n">
-        <v>9.728213881387177</v>
+        <v>9.728213881387171</v>
       </c>
       <c r="J21" t="n">
-        <v>26.69496244827531</v>
+        <v>26.69496244827529</v>
       </c>
       <c r="K21" t="n">
-        <v>45.62594273516326</v>
+        <v>45.62594273516324</v>
       </c>
       <c r="L21" t="n">
-        <v>61.34971059848053</v>
+        <v>61.3497105984805</v>
       </c>
       <c r="M21" t="n">
-        <v>71.59221858952064</v>
+        <v>71.59221858952061</v>
       </c>
       <c r="N21" t="n">
-        <v>73.48705158629021</v>
+        <v>73.48705158629018</v>
       </c>
       <c r="O21" t="n">
-        <v>67.22629534058727</v>
+        <v>67.22629534058724</v>
       </c>
       <c r="P21" t="n">
-        <v>53.95502878571145</v>
+        <v>53.95502878571142</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.06750787310731</v>
+        <v>36.06750787310729</v>
       </c>
       <c r="R21" t="n">
-        <v>17.54300582228241</v>
+        <v>17.5430058222824</v>
       </c>
       <c r="S21" t="n">
-        <v>5.248278444289765</v>
+        <v>5.248278444289763</v>
       </c>
       <c r="T21" t="n">
         <v>1.138882618725453</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2368820588012414</v>
+        <v>0.2368820588012413</v>
       </c>
       <c r="H22" t="n">
-        <v>2.10609685006922</v>
+        <v>2.106096850069219</v>
       </c>
       <c r="I22" t="n">
-        <v>7.12368955013188</v>
+        <v>7.123689550131877</v>
       </c>
       <c r="J22" t="n">
-        <v>16.74756155724777</v>
+        <v>16.74756155724776</v>
       </c>
       <c r="K22" t="n">
-        <v>27.52138828618058</v>
+        <v>27.52138828618057</v>
       </c>
       <c r="L22" t="n">
-        <v>35.21790172395912</v>
+        <v>35.21790172395909</v>
       </c>
       <c r="M22" t="n">
-        <v>37.1323394537255</v>
+        <v>37.13233945372549</v>
       </c>
       <c r="N22" t="n">
-        <v>36.24941541637545</v>
+        <v>36.24941541637543</v>
       </c>
       <c r="O22" t="n">
-        <v>33.48220227492457</v>
+        <v>33.48220227492455</v>
       </c>
       <c r="P22" t="n">
-        <v>28.64980827537922</v>
+        <v>28.64980827537921</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.83564221471122</v>
+        <v>19.83564221471121</v>
       </c>
       <c r="R22" t="n">
         <v>10.65107875300854</v>
       </c>
       <c r="S22" t="n">
-        <v>4.128208242927087</v>
+        <v>4.128208242927085</v>
       </c>
       <c r="T22" t="n">
         <v>1.012132433059849</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01292083957097682</v>
+        <v>0.01292083957097681</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5280879154637083</v>
+        <v>0.5280879154637079</v>
       </c>
       <c r="H23" t="n">
-        <v>5.408280364242703</v>
+        <v>5.4082803642427</v>
       </c>
       <c r="I23" t="n">
-        <v>20.35910936091463</v>
+        <v>20.35910936091462</v>
       </c>
       <c r="J23" t="n">
-        <v>44.82080171508795</v>
+        <v>44.82080171508792</v>
       </c>
       <c r="K23" t="n">
-        <v>67.17476317666673</v>
+        <v>67.1747631766667</v>
       </c>
       <c r="L23" t="n">
-        <v>83.33623371953921</v>
+        <v>83.33623371953917</v>
       </c>
       <c r="M23" t="n">
-        <v>92.72761718616692</v>
+        <v>92.72761718616688</v>
       </c>
       <c r="N23" t="n">
-        <v>94.22804697597819</v>
+        <v>94.22804697597815</v>
       </c>
       <c r="O23" t="n">
-        <v>88.97687276658594</v>
+        <v>88.9768727665859</v>
       </c>
       <c r="P23" t="n">
-        <v>75.93970235357563</v>
+        <v>75.9397023535756</v>
       </c>
       <c r="Q23" t="n">
-        <v>57.02755388103156</v>
+        <v>57.02755388103154</v>
       </c>
       <c r="R23" t="n">
-        <v>33.17250251974719</v>
+        <v>33.17250251974718</v>
       </c>
       <c r="S23" t="n">
         <v>12.03380337362926</v>
       </c>
       <c r="T23" t="n">
-        <v>2.311704849942384</v>
+        <v>2.311704849942383</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04224703323709665</v>
+        <v>0.04224703323709663</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2825519445804173</v>
+        <v>0.2825519445804172</v>
       </c>
       <c r="H24" t="n">
-        <v>2.728856938447715</v>
+        <v>2.728856938447714</v>
       </c>
       <c r="I24" t="n">
-        <v>9.728213881387177</v>
+        <v>9.728213881387171</v>
       </c>
       <c r="J24" t="n">
-        <v>26.69496244827531</v>
+        <v>26.69496244827529</v>
       </c>
       <c r="K24" t="n">
-        <v>45.62594273516326</v>
+        <v>45.62594273516324</v>
       </c>
       <c r="L24" t="n">
-        <v>61.34971059848053</v>
+        <v>61.3497105984805</v>
       </c>
       <c r="M24" t="n">
-        <v>71.59221858952064</v>
+        <v>71.59221858952061</v>
       </c>
       <c r="N24" t="n">
-        <v>73.48705158629021</v>
+        <v>73.48705158629018</v>
       </c>
       <c r="O24" t="n">
-        <v>67.22629534058727</v>
+        <v>67.22629534058724</v>
       </c>
       <c r="P24" t="n">
-        <v>53.95502878571145</v>
+        <v>53.95502878571142</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.06750787310731</v>
+        <v>36.06750787310729</v>
       </c>
       <c r="R24" t="n">
-        <v>17.54300582228241</v>
+        <v>17.5430058222824</v>
       </c>
       <c r="S24" t="n">
-        <v>5.248278444289765</v>
+        <v>5.248278444289763</v>
       </c>
       <c r="T24" t="n">
         <v>1.138882618725453</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2368820588012414</v>
+        <v>0.2368820588012413</v>
       </c>
       <c r="H25" t="n">
-        <v>2.10609685006922</v>
+        <v>2.106096850069219</v>
       </c>
       <c r="I25" t="n">
-        <v>7.12368955013188</v>
+        <v>7.123689550131877</v>
       </c>
       <c r="J25" t="n">
-        <v>16.74756155724777</v>
+        <v>16.74756155724776</v>
       </c>
       <c r="K25" t="n">
-        <v>27.52138828618058</v>
+        <v>27.52138828618057</v>
       </c>
       <c r="L25" t="n">
-        <v>35.21790172395912</v>
+        <v>35.21790172395909</v>
       </c>
       <c r="M25" t="n">
-        <v>37.1323394537255</v>
+        <v>37.13233945372549</v>
       </c>
       <c r="N25" t="n">
-        <v>36.24941541637545</v>
+        <v>36.24941541637543</v>
       </c>
       <c r="O25" t="n">
-        <v>33.48220227492457</v>
+        <v>33.48220227492455</v>
       </c>
       <c r="P25" t="n">
-        <v>28.64980827537922</v>
+        <v>28.64980827537921</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.83564221471122</v>
+        <v>19.83564221471121</v>
       </c>
       <c r="R25" t="n">
         <v>10.65107875300854</v>
       </c>
       <c r="S25" t="n">
-        <v>4.128208242927087</v>
+        <v>4.128208242927085</v>
       </c>
       <c r="T25" t="n">
         <v>1.012132433059849</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01292083957097682</v>
+        <v>0.01292083957097681</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="N8" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P9" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="N10" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="O10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>117.5466040108512</v>
       </c>
       <c r="K11" t="n">
-        <v>309.7407955451342</v>
+        <v>309.7407955451341</v>
       </c>
       <c r="L11" t="n">
-        <v>434.7356004720102</v>
+        <v>434.7356004720101</v>
       </c>
       <c r="M11" t="n">
-        <v>489.9388962296901</v>
+        <v>489.93889622969</v>
       </c>
       <c r="N11" t="n">
         <v>476.3809345393274</v>
       </c>
       <c r="O11" t="n">
-        <v>219.4955117396111</v>
+        <v>397.0623116280343</v>
       </c>
       <c r="P11" t="n">
-        <v>306.4012139253466</v>
+        <v>128.8344140369236</v>
       </c>
       <c r="Q11" t="n">
         <v>152.4136687159174</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.5577367241401</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>277.4345816848488</v>
       </c>
       <c r="L12" t="n">
-        <v>430.8667259218297</v>
+        <v>430.8667259218296</v>
       </c>
       <c r="M12" t="n">
         <v>561.5248989028806</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3462076766595</v>
+        <v>589.9169971652013</v>
       </c>
       <c r="O12" t="n">
         <v>463.3878617892245</v>
       </c>
       <c r="P12" t="n">
-        <v>359.1024219934865</v>
+        <v>183.5221597139034</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.4327904848186</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.75431002464914</v>
+        <v>53.75431002464909</v>
       </c>
       <c r="K13" t="n">
-        <v>157.9284269380393</v>
+        <v>157.9284269380392</v>
       </c>
       <c r="L13" t="n">
         <v>233.3046289168441</v>
       </c>
       <c r="M13" t="n">
-        <v>252.7811138459461</v>
+        <v>252.781113845946</v>
       </c>
       <c r="N13" t="n">
-        <v>252.3313571035442</v>
+        <v>252.3313571035441</v>
       </c>
       <c r="O13" t="n">
-        <v>229.4038457258199</v>
+        <v>229.4038457258198</v>
       </c>
       <c r="P13" t="n">
-        <v>188.7177519610706</v>
+        <v>188.7177519610705</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.14708894923375</v>
+        <v>78.14708894923369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>92.39347283834518</v>
+        <v>117.5466040108512</v>
       </c>
       <c r="K14" t="n">
-        <v>309.7407955451342</v>
+        <v>309.7407955451341</v>
       </c>
       <c r="L14" t="n">
-        <v>434.7356004720102</v>
+        <v>434.7356004720101</v>
       </c>
       <c r="M14" t="n">
-        <v>489.9388962296901</v>
+        <v>489.93889622969</v>
       </c>
       <c r="N14" t="n">
         <v>476.3809345393274</v>
       </c>
       <c r="O14" t="n">
-        <v>397.0623116280344</v>
+        <v>371.9091804555289</v>
       </c>
       <c r="P14" t="n">
-        <v>306.4012139253466</v>
+        <v>306.4012139253465</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>277.4345816848488</v>
       </c>
       <c r="L15" t="n">
-        <v>430.8667259218297</v>
+        <v>430.8667259218296</v>
       </c>
       <c r="M15" t="n">
-        <v>561.5248989028806</v>
+        <v>549.6142681319649</v>
       </c>
       <c r="N15" t="n">
-        <v>589.9169971652015</v>
+        <v>589.9169971652013</v>
       </c>
       <c r="O15" t="n">
         <v>463.3878617892245</v>
       </c>
       <c r="P15" t="n">
-        <v>359.1024219934865</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>101.854319405265</v>
+        <v>195.4327904848186</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.75431002464921</v>
+        <v>53.75431002464909</v>
       </c>
       <c r="K16" t="n">
-        <v>157.9284269380393</v>
+        <v>157.9284269380392</v>
       </c>
       <c r="L16" t="n">
-        <v>233.3046289168442</v>
+        <v>233.3046289168441</v>
       </c>
       <c r="M16" t="n">
-        <v>252.7811138459462</v>
+        <v>252.781113845946</v>
       </c>
       <c r="N16" t="n">
-        <v>252.3313571035443</v>
+        <v>252.3313571035441</v>
       </c>
       <c r="O16" t="n">
-        <v>229.4038457258199</v>
+        <v>229.4038457258198</v>
       </c>
       <c r="P16" t="n">
-        <v>188.7177519610707</v>
+        <v>188.7177519610705</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.14708894923382</v>
+        <v>78.14708894923369</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.5466040108512</v>
+        <v>92.39347283834574</v>
       </c>
       <c r="K17" t="n">
-        <v>309.7407955451342</v>
+        <v>309.7407955451341</v>
       </c>
       <c r="L17" t="n">
-        <v>434.7356004720102</v>
+        <v>434.7356004720101</v>
       </c>
       <c r="M17" t="n">
-        <v>312.3720963412665</v>
+        <v>489.93889622969</v>
       </c>
       <c r="N17" t="n">
         <v>476.3809345393274</v>
       </c>
       <c r="O17" t="n">
-        <v>397.0623116280344</v>
+        <v>397.0623116280343</v>
       </c>
       <c r="P17" t="n">
-        <v>306.4012139253466</v>
+        <v>306.4012139253465</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.4136687159174</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>87.5577367241401</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>249.7305181181361</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>430.8667259218296</v>
       </c>
       <c r="M18" t="n">
         <v>561.5248989028806</v>
       </c>
       <c r="N18" t="n">
-        <v>589.9169971652015</v>
+        <v>589.9169971652013</v>
       </c>
       <c r="O18" t="n">
         <v>463.3878617892245</v>
       </c>
       <c r="P18" t="n">
-        <v>359.1024219934865</v>
+        <v>359.1024219934864</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.4327904848186</v>
+        <v>101.8543194052654</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>61.46501227066888</v>
+        <v>61.46501227066887</v>
       </c>
       <c r="L19" t="n">
         <v>136.8412142494738</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.5466040108512</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>309.7407955451342</v>
+        <v>249.7205996675623</v>
       </c>
       <c r="L20" t="n">
-        <v>434.7356004720102</v>
+        <v>434.7356004720101</v>
       </c>
       <c r="M20" t="n">
-        <v>489.9388962296901</v>
+        <v>489.93889622969</v>
       </c>
       <c r="N20" t="n">
         <v>476.3809345393274</v>
       </c>
       <c r="O20" t="n">
-        <v>219.4955117396107</v>
+        <v>397.0623116280343</v>
       </c>
       <c r="P20" t="n">
-        <v>306.4012139253466</v>
+        <v>306.4012139253465</v>
       </c>
       <c r="Q20" t="n">
         <v>152.4136687159174</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>87.5577367241401</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>277.4345816848488</v>
+        <v>101.8543194052652</v>
       </c>
       <c r="L21" t="n">
-        <v>430.8667259218297</v>
+        <v>430.8667259218296</v>
       </c>
       <c r="M21" t="n">
-        <v>102.9541094143382</v>
+        <v>561.5248989028806</v>
       </c>
       <c r="N21" t="n">
-        <v>589.9169971652015</v>
+        <v>589.9169971652013</v>
       </c>
       <c r="O21" t="n">
         <v>463.3878617892245</v>
       </c>
       <c r="P21" t="n">
-        <v>359.1024219934865</v>
+        <v>359.1024219934864</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4327904848186</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>61.46501227066888</v>
+        <v>61.46501227066887</v>
       </c>
       <c r="L22" t="n">
         <v>136.8412142494738</v>
@@ -36358,22 +36358,22 @@
         <v>117.5466040108512</v>
       </c>
       <c r="K23" t="n">
-        <v>309.7407955451342</v>
+        <v>309.7407955451341</v>
       </c>
       <c r="L23" t="n">
-        <v>434.7356004720102</v>
+        <v>434.7356004720101</v>
       </c>
       <c r="M23" t="n">
-        <v>489.9388962296901</v>
+        <v>489.93889622969</v>
       </c>
       <c r="N23" t="n">
         <v>476.3809345393274</v>
       </c>
       <c r="O23" t="n">
-        <v>397.0623116280344</v>
+        <v>397.0623116280343</v>
       </c>
       <c r="P23" t="n">
-        <v>306.4012139253466</v>
+        <v>306.4012139253465</v>
       </c>
       <c r="Q23" t="n">
         <v>152.4136687159174</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>87.5577367241401</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>277.4345816848488</v>
       </c>
       <c r="L24" t="n">
-        <v>430.8667259218297</v>
+        <v>430.8667259218296</v>
       </c>
       <c r="M24" t="n">
         <v>561.5248989028806</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3462076766593</v>
+        <v>589.9169971652013</v>
       </c>
       <c r="O24" t="n">
         <v>463.3878617892245</v>
       </c>
       <c r="P24" t="n">
-        <v>359.1024219934865</v>
+        <v>183.5221597139034</v>
       </c>
       <c r="Q24" t="n">
-        <v>195.4327904848186</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>61.46501227066888</v>
+        <v>61.46501227066887</v>
       </c>
       <c r="L25" t="n">
         <v>136.8412142494738</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.262614525438</v>
+        <v>126.382872812218</v>
       </c>
       <c r="K26" t="n">
         <v>412.4568060597209</v>
@@ -36604,7 +36604,7 @@
         <v>592.6549067442768</v>
       </c>
       <c r="N26" t="n">
-        <v>485.217203340696</v>
+        <v>579.0969450539142</v>
       </c>
       <c r="O26" t="n">
         <v>499.7783221426211</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>87.55773672414009</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>277.4345816848488</v>
+        <v>101.8543194052651</v>
       </c>
       <c r="L27" t="n">
         <v>430.8667259218296</v>
       </c>
       <c r="M27" t="n">
-        <v>102.9541094143383</v>
+        <v>561.5248989028806</v>
       </c>
       <c r="N27" t="n">
         <v>589.9169971652013</v>
@@ -36692,7 +36692,7 @@
         <v>359.1024219934864</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.4327904848186</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>220.262614525438</v>
       </c>
       <c r="K29" t="n">
-        <v>412.456806059721</v>
+        <v>412.4568060597209</v>
       </c>
       <c r="L29" t="n">
-        <v>443.5718692733787</v>
+        <v>537.4516109865968</v>
       </c>
       <c r="M29" t="n">
-        <v>592.6549067442769</v>
+        <v>592.6549067442768</v>
       </c>
       <c r="N29" t="n">
-        <v>579.0969450539142</v>
+        <v>485.2172033406941</v>
       </c>
       <c r="O29" t="n">
-        <v>499.7783221426212</v>
+        <v>499.7783221426211</v>
       </c>
       <c r="P29" t="n">
-        <v>409.1172244399334</v>
+        <v>409.1172244399333</v>
       </c>
       <c r="Q29" t="n">
         <v>255.1296792305042</v>
       </c>
       <c r="R29" t="n">
-        <v>46.15660939522881</v>
+        <v>46.15660939522876</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.5577367241401</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>277.4345816848488</v>
@@ -36917,10 +36917,10 @@
         <v>430.8667259218297</v>
       </c>
       <c r="M30" t="n">
-        <v>102.9541094143381</v>
+        <v>561.5248989028806</v>
       </c>
       <c r="N30" t="n">
-        <v>589.9169971652015</v>
+        <v>218.9039444007991</v>
       </c>
       <c r="O30" t="n">
         <v>463.3878617892245</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.00690587186557</v>
+        <v>60.00690587186553</v>
       </c>
       <c r="K31" t="n">
-        <v>164.1810227852557</v>
+        <v>164.1810227852556</v>
       </c>
       <c r="L31" t="n">
         <v>239.5572247640605</v>
       </c>
       <c r="M31" t="n">
-        <v>259.0337096931626</v>
+        <v>259.0337096931625</v>
       </c>
       <c r="N31" t="n">
-        <v>258.5839529507606</v>
+        <v>258.5839529507605</v>
       </c>
       <c r="O31" t="n">
-        <v>235.6564415730363</v>
+        <v>235.6564415730362</v>
       </c>
       <c r="P31" t="n">
         <v>194.970347808287</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.39968479645017</v>
+        <v>84.39968479645013</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.5466040108512</v>
+        <v>222.8523186201581</v>
       </c>
       <c r="K32" t="n">
-        <v>363.5308625323017</v>
+        <v>415.046510154441</v>
       </c>
       <c r="L32" t="n">
-        <v>540.041315081317</v>
+        <v>488.5256674591747</v>
       </c>
       <c r="M32" t="n">
-        <v>595.2446108389968</v>
+        <v>489.93889622969</v>
       </c>
       <c r="N32" t="n">
-        <v>581.6866491486342</v>
+        <v>581.6866491486343</v>
       </c>
       <c r="O32" t="n">
-        <v>502.368026237341</v>
+        <v>502.3680262373413</v>
       </c>
       <c r="P32" t="n">
-        <v>411.7069285346533</v>
+        <v>411.7069285346535</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.7193833252242</v>
+        <v>257.7193833252243</v>
       </c>
       <c r="R32" t="n">
-        <v>48.74631348994875</v>
+        <v>48.74631348994888</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>430.8667259218296</v>
       </c>
       <c r="M33" t="n">
-        <v>561.5248989028806</v>
+        <v>102.9541094143383</v>
       </c>
       <c r="N33" t="n">
-        <v>131.346207676659</v>
+        <v>589.9169971652013</v>
       </c>
       <c r="O33" t="n">
         <v>463.3878617892245</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>62.59660996658565</v>
       </c>
       <c r="K34" t="n">
-        <v>166.3731348453369</v>
+        <v>166.7707268799758</v>
       </c>
       <c r="L34" t="n">
-        <v>242.1469288587805</v>
+        <v>242.1469288587806</v>
       </c>
       <c r="M34" t="n">
-        <v>261.6234137878825</v>
+        <v>261.6234137878826</v>
       </c>
       <c r="N34" t="n">
-        <v>261.1736570454805</v>
+        <v>198.1794550442527</v>
       </c>
       <c r="O34" t="n">
-        <v>238.2461456677563</v>
+        <v>238.2461456677564</v>
       </c>
       <c r="P34" t="n">
-        <v>197.560051903007</v>
+        <v>197.5600519030071</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.98938889117012</v>
+        <v>86.98938889117025</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>397.0623116280343</v>
       </c>
       <c r="P35" t="n">
-        <v>306.4012139253464</v>
+        <v>306.4012139253465</v>
       </c>
       <c r="Q35" t="n">
         <v>152.4136687159174</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>87.55773672414009</v>
       </c>
       <c r="K36" t="n">
-        <v>277.4345816848488</v>
+        <v>177.9662141897931</v>
       </c>
       <c r="L36" t="n">
         <v>430.8667259218296</v>
@@ -37400,10 +37400,10 @@
         <v>463.3878617892245</v>
       </c>
       <c r="P36" t="n">
-        <v>183.5221597139034</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>195.4327904848186</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>87.55773672414009</v>
+        <v>59.85367315742772</v>
       </c>
       <c r="K39" t="n">
         <v>277.4345816848488</v>
       </c>
       <c r="L39" t="n">
-        <v>430.8667259218296</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>102.9541094143385</v>
+        <v>561.5248989028806</v>
       </c>
       <c r="N39" t="n">
         <v>589.9169971652013</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.5466040108512</v>
+        <v>117.5466040108516</v>
       </c>
       <c r="K41" t="n">
         <v>309.7407955451341</v>
@@ -37786,7 +37786,7 @@
         <v>434.7356004720101</v>
       </c>
       <c r="M41" t="n">
-        <v>489.9388962296906</v>
+        <v>489.93889622969</v>
       </c>
       <c r="N41" t="n">
         <v>476.3809345393274</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>87.55773672414009</v>
       </c>
       <c r="K42" t="n">
         <v>277.4345816848488</v>
@@ -37868,7 +37868,7 @@
         <v>561.5248989028806</v>
       </c>
       <c r="N42" t="n">
-        <v>218.9039444007995</v>
+        <v>131.3462076766593</v>
       </c>
       <c r="O42" t="n">
         <v>463.3878617892245</v>
@@ -38105,10 +38105,10 @@
         <v>561.5248989028806</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3462076766593</v>
+        <v>589.9169971652013</v>
       </c>
       <c r="O45" t="n">
-        <v>463.3878617892245</v>
+        <v>4.817072300682532</v>
       </c>
       <c r="P45" t="n">
         <v>359.1024219934864</v>
